--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -27,6 +27,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>replacement is purhcaced
 Precision M4800</t>
@@ -40,6 +41,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>4 cpu @ 16874 each</t>
         </r>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="202">
   <si>
     <t>Usage</t>
   </si>
@@ -466,9 +468,6 @@
     <t>NVIDIA Quadro 2000</t>
   </si>
   <si>
-    <t>WinXP 32-bit builder</t>
-  </si>
-  <si>
     <t>ndw1173</t>
   </si>
   <si>
@@ -635,13 +634,37 @@
   </si>
   <si>
     <t>Xeon E5-4617 @2.90Ghz ( core + HT)</t>
+  </si>
+  <si>
+    <t>Win8 64-bit builder</t>
+  </si>
+  <si>
+    <t>Build server &amp; systest spec</t>
+  </si>
+  <si>
+    <t>Fast single socket</t>
+  </si>
+  <si>
+    <t>optiplex 9020</t>
+  </si>
+  <si>
+    <t>i7-4770 @3.4GHz</t>
+  </si>
+  <si>
+    <t>Fedora 20 build server</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 4600</t>
+  </si>
+  <si>
+    <t>Fedora 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -652,6 +675,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -674,11 +704,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,6 +746,49 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1027" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 3" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1032,7 +1108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1915,32 +1993,32 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" t="s">
         <v>138</v>
-      </c>
-      <c r="B26" t="s">
-        <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
         <v>140</v>
-      </c>
-      <c r="E26" t="s">
-        <v>141</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
         <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J26">
         <f>VLOOKUP(E26,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -1953,31 +2031,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
         <v>144</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
         <v>146</v>
-      </c>
-      <c r="E27" t="s">
-        <v>147</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
       </c>
       <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
         <v>148</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>149</v>
-      </c>
-      <c r="I27" t="s">
-        <v>150</v>
       </c>
       <c r="J27">
         <f>VLOOKUP(E27,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -1990,31 +2068,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
         <v>151</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
       </c>
       <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
         <v>153</v>
-      </c>
-      <c r="E28" t="s">
-        <v>154</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
       </c>
       <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
         <v>155</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>156</v>
-      </c>
-      <c r="I28" t="s">
-        <v>157</v>
       </c>
       <c r="J28">
         <f>VLOOKUP(E28,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2027,31 +2105,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
         <v>158</v>
-      </c>
-      <c r="B29" t="s">
-        <v>159</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s">
         <v>160</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>161</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>162</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>163</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>164</v>
-      </c>
-      <c r="I29" t="s">
-        <v>165</v>
       </c>
       <c r="J29">
         <f>VLOOKUP(E29,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2064,28 +2142,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
         <v>166</v>
-      </c>
-      <c r="B30" t="s">
-        <v>167</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
         <v>168</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
       </c>
       <c r="F30" t="s">
         <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -2101,28 +2179,28 @@
     </row>
     <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
         <v>171</v>
-      </c>
-      <c r="B31" t="s">
-        <v>172</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
         <v>173</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>174</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>175</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>176</v>
-      </c>
-      <c r="H31" t="s">
-        <v>177</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -2138,28 +2216,28 @@
     </row>
     <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
         <v>178</v>
-      </c>
-      <c r="B32" t="s">
-        <v>179</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
         <v>180</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>181</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>182</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>183</v>
-      </c>
-      <c r="H32" t="s">
-        <v>184</v>
       </c>
       <c r="I32" t="s">
         <v>126</v>
@@ -2173,33 +2251,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
         <v>185</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" t="s">
         <v>187</v>
       </c>
-      <c r="F33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" t="s">
-        <v>188</v>
-      </c>
       <c r="H33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" t="s">
         <v>164</v>
-      </c>
-      <c r="I33" t="s">
-        <v>165</v>
       </c>
       <c r="J33">
         <f>VLOOKUP(E33,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2211,13 +2289,37 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J34" t="e">
+      <c r="A34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34">
         <f>VLOOKUP(E34,Benchmarks!$A$2:$B$999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
+        <v>9447</v>
+      </c>
+      <c r="K34">
         <f>VLOOKUP(H34,Benchmarks!$D$2:$E$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2251,6 +2353,15 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J38" t="e">
         <f>VLOOKUP(E38,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2360,7 +2471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J49" t="e">
         <f>VLOOKUP(E49,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2370,7 +2481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J50" t="e">
         <f>VLOOKUP(E50,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2380,7 +2491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J51" t="e">
         <f>VLOOKUP(E51,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2390,7 +2501,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J52" t="e">
         <f>VLOOKUP(E52,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2400,7 +2511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J53" t="e">
         <f>VLOOKUP(E53,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2410,7 +2521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J54" t="e">
         <f>VLOOKUP(E54,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2420,7 +2531,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J55" t="e">
         <f>VLOOKUP(E55,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2430,7 +2541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J56" t="e">
         <f>VLOOKUP(E56,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2440,7 +2551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J57" t="e">
         <f>VLOOKUP(E57,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2450,7 +2561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J58" t="e">
         <f>VLOOKUP(E58,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2460,7 +2571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J59" t="e">
         <f>VLOOKUP(E59,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2470,7 +2581,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J60" t="e">
         <f>VLOOKUP(E60,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2480,7 +2591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J61" t="e">
         <f>VLOOKUP(E61,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2490,7 +2601,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J62" t="e">
         <f>VLOOKUP(E62,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2500,7 +2611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J63" t="e">
         <f>VLOOKUP(E63,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2510,7 +2621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J64" t="e">
         <f>VLOOKUP(E64,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2520,7 +2631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J65" t="e">
         <f>VLOOKUP(E65,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2530,7 +2641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J66" t="e">
         <f>VLOOKUP(E66,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2540,7 +2651,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J67" t="e">
         <f>VLOOKUP(E67,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2550,7 +2661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J68" t="e">
         <f>VLOOKUP(E68,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2560,7 +2671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J69" t="e">
         <f>VLOOKUP(E69,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2570,7 +2681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J70" t="e">
         <f>VLOOKUP(E70,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2580,7 +2691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J71" t="e">
         <f>VLOOKUP(E71,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2590,7 +2701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J72" t="e">
         <f>VLOOKUP(E72,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2600,7 +2711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J73" t="e">
         <f>VLOOKUP(E73,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2610,7 +2721,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J74" t="e">
         <f>VLOOKUP(E74,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2620,7 +2731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J75" t="e">
         <f>VLOOKUP(E75,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2630,7 +2741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J76" t="e">
         <f>VLOOKUP(E76,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2640,7 +2751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J77" t="e">
         <f>VLOOKUP(E77,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2650,7 +2761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J78" t="e">
         <f>VLOOKUP(E78,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2660,7 +2771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J79" t="e">
         <f>VLOOKUP(E79,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2670,7 +2781,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J80" t="e">
         <f>VLOOKUP(E80,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2680,7 +2791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J81" t="e">
         <f>VLOOKUP(E81,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2690,7 +2801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J82" t="e">
         <f>VLOOKUP(E82,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2700,7 +2811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J83" t="e">
         <f>VLOOKUP(E83,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2710,7 +2821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J84" t="e">
         <f>VLOOKUP(E84,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2720,7 +2831,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J85" t="e">
         <f>VLOOKUP(E85,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2730,7 +2841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J86" t="e">
         <f>VLOOKUP(E86,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2740,7 +2851,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J87" t="e">
         <f>VLOOKUP(E87,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2750,7 +2861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="10:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J88" t="e">
         <f>VLOOKUP(E88,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>#N/A</v>
@@ -2769,9 +2880,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2780,17 +2893,17 @@
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2894,7 +3007,7 @@
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8">
         <v>7679</v>
@@ -2984,7 +3097,7 @@
         <v>14612</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>1070</v>
@@ -2992,7 +3105,7 @@
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>9045</v>
@@ -3006,7 +3119,7 @@
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>2877</v>
@@ -3020,7 +3133,7 @@
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17">
         <v>4736</v>
@@ -3040,7 +3153,7 @@
         <v>11707</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>1682</v>
@@ -3054,7 +3167,7 @@
         <v>3927</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -3062,13 +3175,13 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20">
         <v>1497</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -3076,13 +3189,13 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21">
         <v>1964</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -3090,15 +3203,21 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>405</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>658</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>16874</v>
@@ -3106,7 +3225,7 @@
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>19522</v>
@@ -3114,10 +3233,18 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25">
         <v>1546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26">
+        <v>9447</v>
       </c>
     </row>
   </sheetData>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="204">
   <si>
     <t>Usage</t>
   </si>
@@ -435,9 +435,6 @@
     <t>RHEL6</t>
   </si>
   <si>
-    <t>Ubuntu 12.04 builder</t>
-  </si>
-  <si>
     <t>ndw922</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <t>Matrox Electronics Systems Ltd. G200eR2</t>
   </si>
   <si>
-    <t>Unused</t>
-  </si>
-  <si>
     <t>ndw714</t>
   </si>
   <si>
@@ -651,13 +645,25 @@
     <t>i7-4770 @3.4GHz</t>
   </si>
   <si>
-    <t>Fedora 20 build server</t>
-  </si>
-  <si>
     <t>Intel HD Graphics 4600</t>
   </si>
   <si>
-    <t>Fedora 20</t>
+    <t>Ubuntu 14.04 build server</t>
+  </si>
+  <si>
+    <t>mantidlx4</t>
+  </si>
+  <si>
+    <t>Static analysis</t>
+  </si>
+  <si>
+    <t>Unbuntu 12.04 builder</t>
+  </si>
+  <si>
+    <t>Ubuntu 14.04 64-bit</t>
+  </si>
+  <si>
+    <t>Interview PC</t>
   </si>
 </sst>
 </file>
@@ -789,6 +795,49 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 3" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1109,7 +1158,7 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1920,10 +1969,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1938,13 +1987,13 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
         <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -1957,28 +2006,28 @@
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
         <v>131</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>136</v>
-      </c>
-      <c r="H25" t="s">
-        <v>137</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
@@ -1994,31 +2043,31 @@
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
         <v>139</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
         <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J26">
         <f>VLOOKUP(E26,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2031,31 +2080,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
         <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
         <v>145</v>
-      </c>
-      <c r="E27" t="s">
-        <v>146</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
       </c>
       <c r="G27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" t="s">
         <v>147</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>148</v>
-      </c>
-      <c r="I27" t="s">
-        <v>149</v>
       </c>
       <c r="J27">
         <f>VLOOKUP(E27,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2068,31 +2117,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
       </c>
       <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
         <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>153</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
       </c>
       <c r="G28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
         <v>154</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>155</v>
-      </c>
-      <c r="I28" t="s">
-        <v>156</v>
       </c>
       <c r="J28">
         <f>VLOOKUP(E28,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2105,31 +2154,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
         <v>157</v>
-      </c>
-      <c r="B29" t="s">
-        <v>158</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
         <v>159</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>160</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>161</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>162</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>163</v>
-      </c>
-      <c r="I29" t="s">
-        <v>164</v>
       </c>
       <c r="J29">
         <f>VLOOKUP(E29,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2142,31 +2191,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
         <v>165</v>
-      </c>
-      <c r="B30" t="s">
-        <v>166</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
         <v>167</v>
-      </c>
-      <c r="E30" t="s">
-        <v>168</v>
       </c>
       <c r="F30" t="s">
         <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J30">
         <f>VLOOKUP(E30,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2179,31 +2228,31 @@
     </row>
     <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
         <v>170</v>
-      </c>
-      <c r="B31" t="s">
-        <v>171</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
         <v>172</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>173</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>174</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>175</v>
       </c>
-      <c r="H31" t="s">
-        <v>176</v>
-      </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J31">
         <f>VLOOKUP(E31,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2216,28 +2265,28 @@
     </row>
     <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
         <v>177</v>
-      </c>
-      <c r="B32" t="s">
-        <v>178</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
         <v>179</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>180</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>181</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>182</v>
-      </c>
-      <c r="H32" t="s">
-        <v>183</v>
       </c>
       <c r="I32" t="s">
         <v>126</v>
@@ -2253,31 +2302,31 @@
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="J33">
         <f>VLOOKUP(E33,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2290,16 +2339,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>30</v>
@@ -2308,10 +2360,10 @@
         <v>43</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="I34" t="s">
+        <v>202</v>
       </c>
       <c r="J34">
         <f>VLOOKUP(E34,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2323,13 +2375,40 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J35" t="e">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35">
         <f>VLOOKUP(E35,Benchmarks!$A$2:$B$999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K35" t="e">
+        <v>9419</v>
+      </c>
+      <c r="K35">
         <f>VLOOKUP(H35,Benchmarks!$D$2:$E$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>987</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2354,10 +2433,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>30</v>
@@ -2893,17 +2972,17 @@
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3007,7 +3086,7 @@
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8">
         <v>7679</v>
@@ -3091,13 +3170,13 @@
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <v>14612</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14">
         <v>1070</v>
@@ -3105,13 +3184,13 @@
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>9045</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15">
         <v>1299</v>
@@ -3119,7 +3198,7 @@
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16">
         <v>2877</v>
@@ -3133,7 +3212,7 @@
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17">
         <v>4736</v>
@@ -3153,7 +3232,7 @@
         <v>11707</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>1682</v>
@@ -3167,7 +3246,7 @@
         <v>3927</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -3175,13 +3254,13 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>1497</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -3189,13 +3268,13 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21">
         <v>1964</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -3203,13 +3282,13 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22">
         <v>405</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E22">
         <v>658</v>
@@ -3217,7 +3296,7 @@
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23">
         <v>16874</v>
@@ -3225,7 +3304,7 @@
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24">
         <v>19522</v>
@@ -3233,7 +3312,7 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>1546</v>
@@ -3241,7 +3320,7 @@
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26">
         <v>9447</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="210">
   <si>
     <t>Usage</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Mac OS X Mountain Lion 10.8.4</t>
   </si>
   <si>
-    <t>WinXP system tests</t>
-  </si>
-  <si>
     <t>ndw675</t>
   </si>
   <si>
@@ -663,14 +660,35 @@
     <t>Ubuntu 14.04 64-bit</t>
   </si>
   <si>
-    <t>Interview PC</t>
+    <t>recycled</t>
+  </si>
+  <si>
+    <t>Fedora 20 build Server</t>
+  </si>
+  <si>
+    <t>On order</t>
+  </si>
+  <si>
+    <t>Precision T7810</t>
+  </si>
+  <si>
+    <t>2x Xeon Processor E5-2687W v3 (10C, 3.1GHz, Turbo, HT, 25M, 160W)</t>
+  </si>
+  <si>
+    <t>512GB SSD + 2TB HDD</t>
+  </si>
+  <si>
+    <t>NVIDIA Quadro K620</t>
+  </si>
+  <si>
+    <t>Fedora 20 64-Bit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -689,13 +707,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -707,10 +743,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -720,8 +757,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,6 +882,92 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 3" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1158,7 +1288,7 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1969,7 +2099,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
@@ -2043,7 +2173,7 @@
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>137</v>
@@ -2152,67 +2282,67 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I29" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <f>VLOOKUP(E29,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>1497</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <f>VLOOKUP(H29,Benchmarks!$D$2:$E$999,2,FALSE)</f>
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
         <v>164</v>
-      </c>
-      <c r="B30" t="s">
-        <v>165</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
         <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>167</v>
       </c>
       <c r="F30" t="s">
         <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -2228,28 +2358,28 @@
     </row>
     <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
         <v>169</v>
-      </c>
-      <c r="B31" t="s">
-        <v>170</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
         <v>171</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>172</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>173</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>174</v>
-      </c>
-      <c r="H31" t="s">
-        <v>175</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -2265,28 +2395,28 @@
     </row>
     <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
         <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
         <v>178</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>179</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>180</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>181</v>
-      </c>
-      <c r="H32" t="s">
-        <v>182</v>
       </c>
       <c r="I32" t="s">
         <v>126</v>
@@ -2300,58 +2430,58 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" t="s">
-        <v>202</v>
-      </c>
-      <c r="J33">
+      <c r="H33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" s="3">
         <f>VLOOKUP(E33,Benchmarks!$A$2:$B$999,2,FALSE)</f>
         <v>1964</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f>VLOOKUP(H33,Benchmarks!$D$2:$E$999,2,FALSE)</f>
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
         <v>198</v>
-      </c>
-      <c r="B34" t="s">
-        <v>199</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>30</v>
@@ -2360,10 +2490,10 @@
         <v>43</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J34">
         <f>VLOOKUP(E34,Benchmarks!$A$2:$B$999,2,FALSE)</f>
@@ -2376,7 +2506,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -2411,14 +2541,41 @@
         <v>987</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J36" t="e">
+    <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36">
         <f>VLOOKUP(E36,Benchmarks!$A$2:$B$999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K36" t="e">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <f>VLOOKUP(H36,Benchmarks!$D$2:$E$999,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2433,10 +2590,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>30</v>
@@ -2952,17 +3109,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2972,17 +3130,17 @@
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3086,7 +3244,7 @@
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>7679</v>
@@ -3246,7 +3404,7 @@
         <v>3927</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -3254,13 +3412,13 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>1497</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -3268,13 +3426,13 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21">
         <v>1964</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -3282,13 +3440,13 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>405</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22">
         <v>658</v>
@@ -3296,15 +3454,18 @@
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23">
         <v>16874</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24">
         <v>19522</v>
@@ -3312,7 +3473,7 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25">
         <v>1546</v>
@@ -3320,10 +3481,15 @@
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26">
         <v>9447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="555" windowWidth="14055" windowHeight="9150"/>
+    <workbookView xWindow="510" yWindow="555" windowWidth="14055" windowHeight="9150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -1082,6 +1082,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1375,10 +1423,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1442,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2142,356 +2190,6 @@
       </c>
       <c r="J29" t="e">
         <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I30" t="e">
-        <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I31" t="e">
-        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I32" t="e">
-        <f>VLOOKUP(E32,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <f>VLOOKUP(H32,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" t="e">
-        <f>VLOOKUP(E33,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <f>VLOOKUP(H33,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" t="e">
-        <f>VLOOKUP(E34,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <f>VLOOKUP(H34,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" t="e">
-        <f>VLOOKUP(E35,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f>VLOOKUP(H35,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" t="e">
-        <f>VLOOKUP(E36,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
-        <f>VLOOKUP(H36,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" t="e">
-        <f>VLOOKUP(E37,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f>VLOOKUP(H37,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" t="e">
-        <f>VLOOKUP(E38,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <f>VLOOKUP(H38,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" t="e">
-        <f>VLOOKUP(E39,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J39" t="e">
-        <f>VLOOKUP(H39,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" t="e">
-        <f>VLOOKUP(E40,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" t="e">
-        <f>VLOOKUP(H40,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" t="e">
-        <f>VLOOKUP(E41,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" t="e">
-        <f>VLOOKUP(H41,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" t="e">
-        <f>VLOOKUP(E42,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" t="e">
-        <f>VLOOKUP(H42,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" t="e">
-        <f>VLOOKUP(E43,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" t="e">
-        <f>VLOOKUP(H43,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" t="e">
-        <f>VLOOKUP(E44,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" t="e">
-        <f>VLOOKUP(H44,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" t="e">
-        <f>VLOOKUP(E45,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" t="e">
-        <f>VLOOKUP(H45,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" t="e">
-        <f>VLOOKUP(E46,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" t="e">
-        <f>VLOOKUP(H46,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" t="e">
-        <f>VLOOKUP(E47,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" t="e">
-        <f>VLOOKUP(H47,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" t="e">
-        <f>VLOOKUP(E48,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" t="e">
-        <f>VLOOKUP(H48,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" t="e">
-        <f>VLOOKUP(E49,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(H49,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" t="e">
-        <f>VLOOKUP(E50,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f>VLOOKUP(H50,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I51" t="e">
-        <f>VLOOKUP(E51,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f>VLOOKUP(H51,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I52" t="e">
-        <f>VLOOKUP(E52,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <f>VLOOKUP(H52,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I53" t="e">
-        <f>VLOOKUP(E53,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e">
-        <f>VLOOKUP(H53,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I54" t="e">
-        <f>VLOOKUP(E54,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J54" t="e">
-        <f>VLOOKUP(H54,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I55" t="e">
-        <f>VLOOKUP(E55,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" t="e">
-        <f>VLOOKUP(H55,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I56" t="e">
-        <f>VLOOKUP(E56,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" t="e">
-        <f>VLOOKUP(H56,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I57" t="e">
-        <f>VLOOKUP(E57,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" t="e">
-        <f>VLOOKUP(H57,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I58" t="e">
-        <f>VLOOKUP(E58,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" t="e">
-        <f>VLOOKUP(H58,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I59" t="e">
-        <f>VLOOKUP(E59,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" t="e">
-        <f>VLOOKUP(H59,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I60" t="e">
-        <f>VLOOKUP(E60,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J60" t="e">
-        <f>VLOOKUP(H60,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I61" t="e">
-        <f>VLOOKUP(E61,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" t="e">
-        <f>VLOOKUP(H61,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I62" t="e">
-        <f>VLOOKUP(E62,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" t="e">
-        <f>VLOOKUP(H62,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I63" t="e">
-        <f>VLOOKUP(E63,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" t="e">
-        <f>VLOOKUP(H63,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I64" t="e">
-        <f>VLOOKUP(E64,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J64" t="e">
-        <f>VLOOKUP(H64,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2531,10 +2229,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J17" sqref="A17:J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2550,7 +2248,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,426 +2587,6 @@
       </c>
       <c r="J16" t="e">
         <f>VLOOKUP(H16,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" t="e">
-        <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" t="e">
-        <f>VLOOKUP(H17,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" t="e">
-        <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" t="e">
-        <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" t="e">
-        <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" t="e">
-        <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" t="e">
-        <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" t="e">
-        <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" t="e">
-        <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I23" t="e">
-        <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" t="e">
-        <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I24" t="e">
-        <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" t="e">
-        <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I25" t="e">
-        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
-        <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I26" t="e">
-        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" t="e">
-        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I27" t="e">
-        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
-        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I28" t="e">
-        <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I29" t="e">
-        <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I30" t="e">
-        <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I31" t="e">
-        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I32" t="e">
-        <f>VLOOKUP(E32,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <f>VLOOKUP(H32,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" t="e">
-        <f>VLOOKUP(E33,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <f>VLOOKUP(H33,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" t="e">
-        <f>VLOOKUP(E34,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <f>VLOOKUP(H34,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" t="e">
-        <f>VLOOKUP(E35,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f>VLOOKUP(H35,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" t="e">
-        <f>VLOOKUP(E36,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
-        <f>VLOOKUP(H36,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" t="e">
-        <f>VLOOKUP(E37,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f>VLOOKUP(H37,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" t="e">
-        <f>VLOOKUP(E38,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <f>VLOOKUP(H38,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" t="e">
-        <f>VLOOKUP(E39,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J39" t="e">
-        <f>VLOOKUP(H39,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" t="e">
-        <f>VLOOKUP(E40,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" t="e">
-        <f>VLOOKUP(H40,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" t="e">
-        <f>VLOOKUP(E41,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" t="e">
-        <f>VLOOKUP(H41,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" t="e">
-        <f>VLOOKUP(E42,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" t="e">
-        <f>VLOOKUP(H42,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" t="e">
-        <f>VLOOKUP(E43,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" t="e">
-        <f>VLOOKUP(H43,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" t="e">
-        <f>VLOOKUP(E44,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" t="e">
-        <f>VLOOKUP(H44,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" t="e">
-        <f>VLOOKUP(E45,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" t="e">
-        <f>VLOOKUP(H45,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" t="e">
-        <f>VLOOKUP(E46,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" t="e">
-        <f>VLOOKUP(H46,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" t="e">
-        <f>VLOOKUP(E47,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" t="e">
-        <f>VLOOKUP(H47,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" t="e">
-        <f>VLOOKUP(E48,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" t="e">
-        <f>VLOOKUP(H48,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" t="e">
-        <f>VLOOKUP(E49,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(H49,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" t="e">
-        <f>VLOOKUP(E50,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f>VLOOKUP(H50,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I51" t="e">
-        <f>VLOOKUP(E51,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f>VLOOKUP(H51,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I52" t="e">
-        <f>VLOOKUP(E52,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <f>VLOOKUP(H52,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I53" t="e">
-        <f>VLOOKUP(E53,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e">
-        <f>VLOOKUP(H53,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I54" t="e">
-        <f>VLOOKUP(E54,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J54" t="e">
-        <f>VLOOKUP(H54,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I55" t="e">
-        <f>VLOOKUP(E55,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" t="e">
-        <f>VLOOKUP(H55,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I56" t="e">
-        <f>VLOOKUP(E56,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" t="e">
-        <f>VLOOKUP(H56,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I57" t="e">
-        <f>VLOOKUP(E57,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" t="e">
-        <f>VLOOKUP(H57,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I58" t="e">
-        <f>VLOOKUP(E58,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" t="e">
-        <f>VLOOKUP(H58,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3347,10 +2625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3366,7 +2644,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3854,486 +3132,6 @@
       </c>
       <c r="J18" t="e">
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" t="e">
-        <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" t="e">
-        <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" t="e">
-        <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" t="e">
-        <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" t="e">
-        <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I23" t="e">
-        <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" t="e">
-        <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I24" t="e">
-        <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" t="e">
-        <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I25" t="e">
-        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
-        <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I26" t="e">
-        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" t="e">
-        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I27" t="e">
-        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
-        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I28" t="e">
-        <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I29" t="e">
-        <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I30" t="e">
-        <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I31" t="e">
-        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I32" t="e">
-        <f>VLOOKUP(E32,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <f>VLOOKUP(H32,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" t="e">
-        <f>VLOOKUP(E33,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <f>VLOOKUP(H33,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" t="e">
-        <f>VLOOKUP(E34,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <f>VLOOKUP(H34,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" t="e">
-        <f>VLOOKUP(E35,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f>VLOOKUP(H35,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" t="e">
-        <f>VLOOKUP(E36,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
-        <f>VLOOKUP(H36,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" t="e">
-        <f>VLOOKUP(E37,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f>VLOOKUP(H37,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" t="e">
-        <f>VLOOKUP(E38,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <f>VLOOKUP(H38,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" t="e">
-        <f>VLOOKUP(E39,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J39" t="e">
-        <f>VLOOKUP(H39,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" t="e">
-        <f>VLOOKUP(E40,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" t="e">
-        <f>VLOOKUP(H40,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" t="e">
-        <f>VLOOKUP(E41,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" t="e">
-        <f>VLOOKUP(H41,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" t="e">
-        <f>VLOOKUP(E42,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" t="e">
-        <f>VLOOKUP(H42,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" t="e">
-        <f>VLOOKUP(E43,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" t="e">
-        <f>VLOOKUP(H43,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" t="e">
-        <f>VLOOKUP(E44,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" t="e">
-        <f>VLOOKUP(H44,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" t="e">
-        <f>VLOOKUP(E45,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" t="e">
-        <f>VLOOKUP(H45,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" t="e">
-        <f>VLOOKUP(E46,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" t="e">
-        <f>VLOOKUP(H46,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" t="e">
-        <f>VLOOKUP(E47,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" t="e">
-        <f>VLOOKUP(H47,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" t="e">
-        <f>VLOOKUP(E48,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" t="e">
-        <f>VLOOKUP(H48,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" t="e">
-        <f>VLOOKUP(E49,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(H49,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" t="e">
-        <f>VLOOKUP(E50,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f>VLOOKUP(H50,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I51" t="e">
-        <f>VLOOKUP(E51,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f>VLOOKUP(H51,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I52" t="e">
-        <f>VLOOKUP(E52,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <f>VLOOKUP(H52,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I53" t="e">
-        <f>VLOOKUP(E53,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e">
-        <f>VLOOKUP(H53,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I54" t="e">
-        <f>VLOOKUP(E54,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J54" t="e">
-        <f>VLOOKUP(H54,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I55" t="e">
-        <f>VLOOKUP(E55,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" t="e">
-        <f>VLOOKUP(H55,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I56" t="e">
-        <f>VLOOKUP(E56,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" t="e">
-        <f>VLOOKUP(H56,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I57" t="e">
-        <f>VLOOKUP(E57,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" t="e">
-        <f>VLOOKUP(H57,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I58" t="e">
-        <f>VLOOKUP(E58,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" t="e">
-        <f>VLOOKUP(H58,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I59" t="e">
-        <f>VLOOKUP(E59,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" t="e">
-        <f>VLOOKUP(H59,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I60" t="e">
-        <f>VLOOKUP(E60,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J60" t="e">
-        <f>VLOOKUP(H60,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I61" t="e">
-        <f>VLOOKUP(E61,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" t="e">
-        <f>VLOOKUP(H61,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I62" t="e">
-        <f>VLOOKUP(E62,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" t="e">
-        <f>VLOOKUP(H62,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I63" t="e">
-        <f>VLOOKUP(E63,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" t="e">
-        <f>VLOOKUP(H63,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I64" t="e">
-        <f>VLOOKUP(E64,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J64" t="e">
-        <f>VLOOKUP(H64,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I65" t="e">
-        <f>VLOOKUP(E65,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J65" t="e">
-        <f>VLOOKUP(H65,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I66" t="e">
-        <f>VLOOKUP(E66,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" t="e">
-        <f>VLOOKUP(H66,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4377,7 +3175,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5051,6 +3849,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="555" windowWidth="14055" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="555" windowWidth="14055" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -17,40 +17,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nicholas Draper</author>
-  </authors>
-  <commentList>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicholas Draper:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Integrated Intel HD 4000 would appear to be 5 times faster</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -74,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
   <si>
     <t>Usage</t>
   </si>
@@ -223,9 +189,6 @@
     <t>Anders Markvardsen</t>
   </si>
   <si>
-    <t>ndw1285</t>
-  </si>
-  <si>
     <t>i7-3770@3.4GHZ</t>
   </si>
   <si>
@@ -637,9 +600,6 @@
     <t>ndlt703</t>
   </si>
   <si>
-    <t>Imaging Laptop</t>
-  </si>
-  <si>
     <t>Precision M4800</t>
   </si>
   <si>
@@ -665,13 +625,25 @@
   </si>
   <si>
     <t>Usages</t>
+  </si>
+  <si>
+    <t>Anders Markvardsen Laptop</t>
+  </si>
+  <si>
+    <t>ndw892</t>
+  </si>
+  <si>
+    <t>Optiplex 980</t>
+  </si>
+  <si>
+    <t>i7 890@2.93GHZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -721,19 +693,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1130,6 +1089,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1419,14 +1426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1483,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1490,96 +1497,96 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5679</v>
+        <v>5397</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(H3,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>102</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>152</v>
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5478</v>
+        <v>5679</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(H4,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>684</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1592,19 +1599,19 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -1613,7 +1620,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1624,95 +1631,95 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>66</v>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>8014</v>
+        <v>5478</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(H7,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>324</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
+      <c r="A8" t="s">
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>189</v>
+      <c r="H8" t="s">
+        <v>69</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
+        <v>8014</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(H8,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>3060</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
+      <c r="A9" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1720,101 +1727,101 @@
       </c>
       <c r="J9">
         <f>VLOOKUP(H9,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>9419</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <f>VLOOKUP(H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>9419</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1822,15 +1829,15 @@
       </c>
       <c r="J12">
         <f>VLOOKUP(H12,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>96</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1839,13 +1846,13 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1861,25 +1868,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -1895,25 +1902,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -1929,10 +1936,10 @@
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1941,16 +1948,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1963,10 +1970,10 @@
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1975,16 +1982,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1997,10 +2004,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2009,16 +2016,16 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2031,28 +2038,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2065,28 +2072,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2129,10 +2136,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G24" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I24" t="e">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2220,7 +2227,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2232,7 +2238,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="A17:J249"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2324,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2355,25 +2361,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2386,28 +2392,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -2475,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -2509,7 +2515,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2627,7 +2633,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2678,33 +2684,33 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
         <v>114</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2717,28 +2723,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2751,28 +2757,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
         <v>107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
         <v>109</v>
-      </c>
-      <c r="H5" t="s">
-        <v>110</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
@@ -2806,7 +2812,7 @@
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2819,28 +2825,28 @@
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>86</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2853,28 +2859,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2887,28 +2893,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2921,28 +2927,28 @@
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>92</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2955,28 +2961,28 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
         <v>135</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
         <v>136</v>
       </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2989,22 +2995,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
         <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
@@ -3020,28 +3026,28 @@
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
         <v>119</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>122</v>
-      </c>
-      <c r="H13" t="s">
-        <v>123</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3054,28 +3060,28 @@
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="I14" s="3">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3098,10 +3104,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -3175,7 +3181,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3186,23 +3192,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3221,7 +3227,7 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -3231,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -3243,7 +3249,7 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -3253,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -3275,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>96</v>
       </c>
       <c r="G4">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E4) + COUNTIF(Laptops!$H:$H,Benchmarks!$E4) + COUNTIF(Servers!$H:$H,Benchmarks!$E4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>2877</v>
@@ -3297,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3309,7 +3315,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -3319,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -3341,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>324</v>
@@ -3353,7 +3359,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -3363,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -3375,14 +3381,14 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="B9">
-        <v>5478</v>
+        <v>5397</v>
       </c>
       <c r="C9">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A9) + COUNTIF(Laptops!$E:$E,Benchmarks!$A9) + COUNTIF(Servers!$E:$E,Benchmarks!$A9)</f>
-        <v>3</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -3397,13 +3403,13 @@
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>5679</v>
+        <v>5478</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A10) + COUNTIF(Laptops!$E:$E,Benchmarks!$A10) + COUNTIF(Servers!$E:$E,Benchmarks!$A10)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A9) + COUNTIF(Laptops!$E:$E,Benchmarks!$A9) + COUNTIF(Servers!$E:$E,Benchmarks!$A9)</f>
         <v>1</v>
       </c>
       <c r="E10" t="s">
@@ -3419,14 +3425,14 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>6345</v>
+        <v>5679</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A11) + COUNTIF(Laptops!$E:$E,Benchmarks!$A11) + COUNTIF(Servers!$E:$E,Benchmarks!$A11)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A10) + COUNTIF(Laptops!$E:$E,Benchmarks!$A10) + COUNTIF(Servers!$E:$E,Benchmarks!$A10)</f>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -3441,17 +3447,17 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B12">
-        <v>8014</v>
+        <v>6345</v>
       </c>
       <c r="C12">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A12) + COUNTIF(Laptops!$E:$E,Benchmarks!$A12) + COUNTIF(Servers!$E:$E,Benchmarks!$A12)</f>
-        <v>2</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A11) + COUNTIF(Laptops!$E:$E,Benchmarks!$A11) + COUNTIF(Servers!$E:$E,Benchmarks!$A11)</f>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -3462,18 +3468,18 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>193</v>
+      <c r="A13" t="s">
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>8657</v>
+        <v>8014</v>
       </c>
       <c r="C13">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A13) + COUNTIF(Laptops!$E:$E,Benchmarks!$A13) + COUNTIF(Servers!$E:$E,Benchmarks!$A13)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A12) + COUNTIF(Laptops!$E:$E,Benchmarks!$A12) + COUNTIF(Servers!$E:$E,Benchmarks!$A12)</f>
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -3484,18 +3490,18 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>146</v>
+      <c r="A14" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B14">
-        <v>8765</v>
+        <v>8657</v>
       </c>
       <c r="C14">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A14) + COUNTIF(Laptops!$E:$E,Benchmarks!$A14) + COUNTIF(Servers!$E:$E,Benchmarks!$A14)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A13) + COUNTIF(Laptops!$E:$E,Benchmarks!$A13) + COUNTIF(Servers!$E:$E,Benchmarks!$A13)</f>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14">
         <v>684</v>
@@ -3506,14 +3512,14 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>97</v>
+      <c r="A15" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B15">
-        <v>9045</v>
+        <v>8765</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A15) + COUNTIF(Laptops!$E:$E,Benchmarks!$A15) + COUNTIF(Servers!$E:$E,Benchmarks!$A15)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A14) + COUNTIF(Laptops!$E:$E,Benchmarks!$A14) + COUNTIF(Servers!$E:$E,Benchmarks!$A14)</f>
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -3529,17 +3535,17 @@
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>9419</v>
+        <v>9045</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A16) + COUNTIF(Laptops!$E:$E,Benchmarks!$A16) + COUNTIF(Servers!$E:$E,Benchmarks!$A16)</f>
-        <v>6</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A15) + COUNTIF(Laptops!$E:$E,Benchmarks!$A15) + COUNTIF(Servers!$E:$E,Benchmarks!$A15)</f>
+        <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -3550,18 +3556,18 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>132</v>
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>9447</v>
+        <v>9419</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A17) + COUNTIF(Laptops!$E:$E,Benchmarks!$A17) + COUNTIF(Servers!$E:$E,Benchmarks!$A17)</f>
-        <v>3</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A16) + COUNTIF(Laptops!$E:$E,Benchmarks!$A16) + COUNTIF(Servers!$E:$E,Benchmarks!$A16)</f>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -3572,18 +3578,18 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>159</v>
+      <c r="A18" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B18">
-        <v>9995</v>
+        <v>9447</v>
       </c>
       <c r="C18">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A17) + COUNTIF(Laptops!$E:$E,Benchmarks!$A17) + COUNTIF(Servers!$E:$E,Benchmarks!$A17)</f>
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>1070</v>
@@ -3595,17 +3601,17 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B19">
-        <v>10039</v>
+        <v>9995</v>
       </c>
       <c r="C19">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A19) + COUNTIF(Laptops!$E:$E,Benchmarks!$A19) + COUNTIF(Servers!$E:$E,Benchmarks!$A19)</f>
-        <v>2</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <v>1097</v>
@@ -3616,15 +3622,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>45</v>
+      <c r="A20" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="B20">
-        <v>10270</v>
+        <v>10039</v>
       </c>
       <c r="C20">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A20) + COUNTIF(Laptops!$E:$E,Benchmarks!$A20) + COUNTIF(Servers!$E:$E,Benchmarks!$A20)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A19) + COUNTIF(Laptops!$E:$E,Benchmarks!$A19) + COUNTIF(Servers!$E:$E,Benchmarks!$A19)</f>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -3639,17 +3645,17 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>16874</v>
+        <v>10270</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A21) + COUNTIF(Laptops!$E:$E,Benchmarks!$A21) + COUNTIF(Servers!$E:$E,Benchmarks!$A21)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A20) + COUNTIF(Laptops!$E:$E,Benchmarks!$A20) + COUNTIF(Servers!$E:$E,Benchmarks!$A20)</f>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <v>1299</v>
@@ -3661,17 +3667,17 @@
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B22">
-        <v>21216</v>
+        <v>16874</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A22) + COUNTIF(Laptops!$E:$E,Benchmarks!$A22) + COUNTIF(Servers!$E:$E,Benchmarks!$A22)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A21) + COUNTIF(Laptops!$E:$E,Benchmarks!$A21) + COUNTIF(Servers!$E:$E,Benchmarks!$A21)</f>
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22">
         <v>1409</v>
@@ -3683,17 +3689,17 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>24596</v>
+        <v>21216</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A23) + COUNTIF(Laptops!$E:$E,Benchmarks!$A23) + COUNTIF(Servers!$E:$E,Benchmarks!$A23)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A22) + COUNTIF(Laptops!$E:$E,Benchmarks!$A22) + COUNTIF(Servers!$E:$E,Benchmarks!$A22)</f>
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23">
         <v>1682</v>
@@ -3704,12 +3710,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <v>24596</v>
+      </c>
       <c r="C24">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
-        <v>0</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A23) + COUNTIF(Laptops!$E:$E,Benchmarks!$A23) + COUNTIF(Servers!$E:$E,Benchmarks!$A23)</f>
+        <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24">
         <v>2316</v>
@@ -3725,14 +3737,14 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F25">
         <v>3060</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E25) + COUNTIF(Laptops!$H:$H,Benchmarks!$E25) + COUNTIF(Servers!$H:$H,Benchmarks!$E25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3796,6 +3808,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C24">
+    <sortCondition ref="B2:B24"/>
+  </sortState>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="201">
   <si>
     <t>Usage</t>
   </si>
@@ -495,18 +495,12 @@
     <t>Brandon Hewer</t>
   </si>
   <si>
-    <t>Anton Picardo-Selg</t>
-  </si>
-  <si>
     <t>ndw1453</t>
   </si>
   <si>
     <t>Matthew Bowles</t>
   </si>
   <si>
-    <t>Antony Lim</t>
-  </si>
-  <si>
     <t>ndw1468</t>
   </si>
   <si>
@@ -525,12 +519,6 @@
     <t>ATI Radeon R7 250</t>
   </si>
   <si>
-    <t>Louise McCann</t>
-  </si>
-  <si>
-    <t>Pranav</t>
-  </si>
-  <si>
     <t>ndw1593</t>
   </si>
   <si>
@@ -555,12 +543,6 @@
     <t>ndw1467</t>
   </si>
   <si>
-    <t>Dimitar</t>
-  </si>
-  <si>
-    <t>David Fairbrother</t>
-  </si>
-  <si>
     <t>ndw1730</t>
   </si>
   <si>
@@ -637,13 +619,37 @@
   </si>
   <si>
     <t>i7 890@2.93GHZ</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>Dan Nixon</t>
+  </si>
+  <si>
+    <t>Anthony Lim</t>
+  </si>
+  <si>
+    <t>Elliot Oram</t>
+  </si>
+  <si>
+    <t>Matthew Andrew</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Anton Picardo-Selg -&gt; Store</t>
+  </si>
+  <si>
+    <t>imaging or new?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -677,13 +683,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -696,7 +695,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,11 +705,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -728,13 +722,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -752,23 +745,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1137,6 +1126,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1433,12 +1470,12 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
@@ -1500,16 +1537,16 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -1518,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1552,7 +1589,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1563,9 +1600,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>151</v>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1599,7 +1636,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -1632,7 +1669,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B7" t="s">
@@ -1698,7 +1735,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1719,7 +1756,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1766,7 +1803,7 @@
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>61</v>
@@ -1834,10 +1871,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1852,7 +1889,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1868,25 +1905,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -1902,25 +1939,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -1934,12 +1971,12 @@
         <v>987</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>161</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1948,16 +1985,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1968,12 +2005,12 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>162</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1982,16 +2019,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2004,10 +2041,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2016,16 +2053,16 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2041,22 +2078,22 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>146</v>
@@ -2072,25 +2109,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>146</v>
@@ -2136,10 +2173,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G24" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I24" t="e">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2151,6 +2188,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
       <c r="I25" t="e">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2161,6 +2199,12 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>200</v>
+      </c>
       <c r="I26" t="e">
         <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2330,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2361,25 +2405,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2497,7 +2541,7 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2791,10 +2835,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2859,10 +2903,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2877,7 +2921,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>132</v>
@@ -2893,10 +2937,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2911,7 +2955,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>132</v>
@@ -2927,7 +2971,7 @@
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -2961,10 +3005,10 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3198,7 +3242,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
@@ -3208,7 +3252,7 @@
         <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3325,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -3369,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -3381,7 +3425,7 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>5397</v>
@@ -3491,7 +3535,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>8657</v>
@@ -3545,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -3601,7 +3645,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B19">
         <v>9995</v>
@@ -3623,7 +3667,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>10039</v>
@@ -3677,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F22">
         <v>1409</v>
@@ -3737,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F25">
         <v>3060</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spu92482/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="555" windowWidth="14055" windowHeight="9150"/>
+    <workbookView xWindow="520" yWindow="560" windowWidth="21500" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -12,7 +17,15 @@
     <sheet name="Servers" sheetId="1" r:id="rId3"/>
     <sheet name="Benchmarks" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +42,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t>4 cpu @ 16874 each</t>
         </r>
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="208">
   <si>
     <t>Usage</t>
   </si>
@@ -643,6 +655,27 @@
   </si>
   <si>
     <t>imaging or new?</t>
+  </si>
+  <si>
+    <t>ndlt887</t>
+  </si>
+  <si>
+    <t>DELL XPS 15</t>
+  </si>
+  <si>
+    <t>i7-6700@2.6GHZ</t>
+  </si>
+  <si>
+    <t>1TB solid state</t>
+  </si>
+  <si>
+    <t>NVIDIA GTX960M</t>
+  </si>
+  <si>
+    <t>Lamar Moore Laptop</t>
+  </si>
+  <si>
+    <t>Mike Hart Laptop</t>
   </si>
 </sst>
 </file>
@@ -1174,6 +1207,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8864600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1220,12 +1309,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1255,12 +1344,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1464,29 +1553,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>148</v>
       </c>
@@ -1532,7 +1621,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1566,7 +1655,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1600,7 +1689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>199</v>
       </c>
@@ -1634,7 +1723,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
@@ -1668,7 +1757,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>150</v>
       </c>
@@ -1702,7 +1791,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1733,7 +1822,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>194</v>
       </c>
@@ -1767,7 +1856,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1801,7 +1890,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -1835,7 +1924,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1869,7 +1958,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
@@ -1903,7 +1992,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>165</v>
       </c>
@@ -1937,7 +2026,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>195</v>
       </c>
@@ -1971,7 +2060,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>197</v>
       </c>
@@ -2005,7 +2094,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>149</v>
       </c>
@@ -2039,7 +2128,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2073,7 +2162,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +2196,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>196</v>
       </c>
@@ -2141,54 +2230,60 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I21" t="e">
-        <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J21" t="e">
-        <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I22" t="e">
-        <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J22" t="e">
-        <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="G23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="I23" t="e">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" t="e">
+      <c r="J23">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
       <c r="I24" t="e">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="e">
         <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
       <c r="I25" t="e">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2198,13 +2293,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" t="s">
-        <v>200</v>
-      </c>
+    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I26" t="e">
         <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2214,7 +2303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I27" t="e">
         <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2224,23 +2313,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I28" t="e">
         <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
         <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I29" t="e">
-        <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2276,29 +2355,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,12 +2408,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2447,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2481,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -2434,7 +2512,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -2468,7 +2546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -2502,7 +2580,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>138</v>
       </c>
@@ -2536,7 +2614,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2570,27 +2648,72 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
       <c r="I10" t="e">
-        <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(#REF!,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J10" t="e">
-        <f>VLOOKUP(H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(#REF!,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" t="s">
+        <v>205</v>
+      </c>
       <c r="I11" t="e">
-        <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(#REF!,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J11" t="e">
-        <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(#REF!,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I12" t="e">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2600,7 +2723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I13" t="e">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2610,7 +2733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I14" t="e">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2620,7 +2743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I15" t="e">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2630,7 +2753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2672,7 +2795,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
@@ -2681,20 +2804,20 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2726,12 +2849,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2765,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2799,7 +2922,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2833,7 +2956,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>184</v>
       </c>
@@ -2867,7 +2990,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2901,7 +3024,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
@@ -2935,7 +3058,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>176</v>
       </c>
@@ -2969,7 +3092,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
@@ -3003,7 +3126,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
@@ -3037,7 +3160,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3068,7 +3191,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3102,7 +3225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
@@ -3136,7 +3259,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I15" t="e">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3146,7 +3269,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>128</v>
       </c>
@@ -3165,7 +3288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I17" t="e">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3175,7 +3298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I18" t="e">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3228,13 +3351,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -3269,7 +3392,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3291,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3313,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3335,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -3357,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3379,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3401,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -3423,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -3445,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3467,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3489,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3511,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3533,7 +3656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>185</v>
       </c>
@@ -3555,7 +3678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>145</v>
       </c>
@@ -3577,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3599,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -3643,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>156</v>
       </c>
@@ -3665,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>164</v>
       </c>
@@ -3687,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3709,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -3731,7 +3854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -3753,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3775,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A25) + COUNTIF(Laptops!$E:$E,Benchmarks!$A25) + COUNTIF(Servers!$E:$E,Benchmarks!$A25)</f>
         <v>0</v>
@@ -3791,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A26) + COUNTIF(Laptops!$E:$E,Benchmarks!$A26) + COUNTIF(Servers!$E:$E,Benchmarks!$A26)</f>
         <v>0</v>
@@ -3801,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A27) + COUNTIF(Laptops!$E:$E,Benchmarks!$A27) + COUNTIF(Servers!$E:$E,Benchmarks!$A27)</f>
         <v>0</v>
@@ -3811,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A28) + COUNTIF(Laptops!$E:$E,Benchmarks!$A28) + COUNTIF(Servers!$E:$E,Benchmarks!$A28)</f>
         <v>0</v>
@@ -3821,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A29) + COUNTIF(Laptops!$E:$E,Benchmarks!$A29) + COUNTIF(Servers!$E:$E,Benchmarks!$A29)</f>
         <v>0</v>
@@ -3831,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A30) + COUNTIF(Laptops!$E:$E,Benchmarks!$A30) + COUNTIF(Servers!$E:$E,Benchmarks!$A30)</f>
         <v>0</v>
@@ -3841,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A31) + COUNTIF(Laptops!$E:$E,Benchmarks!$A31) + COUNTIF(Servers!$E:$E,Benchmarks!$A31)</f>
         <v>0</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spu92482/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="560" windowWidth="21500" windowHeight="13720"/>
+    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -17,11 +12,11 @@
     <sheet name="Servers" sheetId="1" r:id="rId3"/>
     <sheet name="Benchmarks" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Laptops!$I$1:$I$16</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,6 +37,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>4 cpu @ 16874 each</t>
         </r>
@@ -51,8 +47,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nicholas Draper</author>
+  </authors>
+  <commentList>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicholas Draper:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+benchmark for 1 processor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nicholas Draper:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+benchmark for 1 GPU</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="220">
   <si>
     <t>Usage</t>
   </si>
@@ -633,9 +687,6 @@
     <t>i7 890@2.93GHZ</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>Dan Nixon</t>
   </si>
   <si>
@@ -654,18 +705,12 @@
     <t>Anton Picardo-Selg -&gt; Store</t>
   </si>
   <si>
-    <t>imaging or new?</t>
-  </si>
-  <si>
     <t>ndlt887</t>
   </si>
   <si>
     <t>DELL XPS 15</t>
   </si>
   <si>
-    <t>i7-6700@2.6GHZ</t>
-  </si>
-  <si>
     <t>1TB solid state</t>
   </si>
   <si>
@@ -676,13 +721,58 @@
   </si>
   <si>
     <t>Mike Hart Laptop</t>
+  </si>
+  <si>
+    <t>?? Builder</t>
+  </si>
+  <si>
+    <t>ndw1850</t>
+  </si>
+  <si>
+    <t>ndw1851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptiPlex 5050 </t>
+  </si>
+  <si>
+    <t>i7-7700 @3.6GHz</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 630</t>
+  </si>
+  <si>
+    <t>i7-6700HQ@2.6GHZ</t>
+  </si>
+  <si>
+    <t>i7-7700@3.6GHZ</t>
+  </si>
+  <si>
+    <t>Optiplex 7050</t>
+  </si>
+  <si>
+    <t>Intel® HD Graphics 630</t>
+  </si>
+  <si>
+    <t>Precision 7820</t>
+  </si>
+  <si>
+    <t>Dual Xeon Gold 6134 (8C@3.2GHz)</t>
+  </si>
+  <si>
+    <t>1TB NVMe + 3* 2TB IDE</t>
+  </si>
+  <si>
+    <t>Dual nVidia GTX1080 Ti</t>
+  </si>
+  <si>
+    <t>Dan - Imaging workstation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -727,8 +817,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,13 +854,34 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -760,7 +890,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -785,6 +915,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,7 +960,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -858,7 +1003,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -901,7 +1046,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -944,7 +1089,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -987,7 +1132,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1030,7 +1175,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1073,7 +1218,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1121,7 +1266,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1169,7 +1314,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1217,7 +1362,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1260,6 +1405,102 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1558,24 +1799,24 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>148</v>
       </c>
@@ -1621,7 +1862,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1896,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1689,9 +1930,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1723,9 +1964,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -1757,7 +1998,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>150</v>
       </c>
@@ -1791,7 +2032,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1822,9 +2063,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1856,7 +2097,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +2131,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -1924,7 +2165,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1958,7 +2199,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
@@ -1992,7 +2233,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>165</v>
       </c>
@@ -2026,9 +2267,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>153</v>
@@ -2060,9 +2301,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>155</v>
@@ -2094,7 +2335,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>149</v>
       </c>
@@ -2128,7 +2369,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2162,7 +2403,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -2196,9 +2437,9 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>167</v>
@@ -2230,46 +2471,100 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="I21" t="e">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21">
         <f>VLOOKUP(Laptops!E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" t="e">
-        <f>VLOOKUP(Laptops!H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="I22" t="e">
+        <v>8141</v>
+      </c>
+      <c r="J21">
+        <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22">
         <f>VLOOKUP(Laptops!E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f>VLOOKUP(Laptops!H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>8141</v>
+      </c>
+      <c r="J22">
+        <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="I23" t="e">
-        <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J23">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>13733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="I24" t="e">
-        <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J24" t="e">
@@ -2277,25 +2572,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" t="s">
-        <v>200</v>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="I25" t="e">
-        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" t="e">
+      <c r="J25">
         <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I26" t="e">
-        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J26" t="e">
@@ -2303,9 +2598,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" t="e">
-        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
@@ -2313,7 +2608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I28" t="e">
         <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2361,22 +2656,22 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1"/>
-    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2408,12 +2703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2447,7 +2742,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2481,7 +2776,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -2512,7 +2807,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -2546,7 +2841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -2580,7 +2875,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>138</v>
       </c>
@@ -2614,7 +2909,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2648,72 +2943,72 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>8141</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP(H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>204</v>
-      </c>
-      <c r="H10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10" t="e">
-        <f>VLOOKUP(#REF!,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" t="e">
-        <f>VLOOKUP(#REF!,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" t="e">
-        <f>VLOOKUP(#REF!,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" t="e">
-        <f>VLOOKUP(#REF!,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>8141</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" t="e">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2723,7 +3018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I13" t="e">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2733,7 +3028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="e">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2743,7 +3038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I15" t="e">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2753,7 +3048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2798,26 +3093,26 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2849,12 +3144,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2888,7 +3183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2922,7 +3217,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2956,7 +3251,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>184</v>
       </c>
@@ -2990,7 +3285,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3024,7 +3319,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
@@ -3058,7 +3353,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>176</v>
       </c>
@@ -3092,7 +3387,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
@@ -3126,7 +3421,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
@@ -3160,7 +3455,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3191,7 +3486,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3225,7 +3520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
@@ -3259,36 +3554,75 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="I15" t="e">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" t="e">
+        <v>10807</v>
+      </c>
+      <c r="J15">
         <f>VLOOKUP(H15,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>205</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I16" t="e">
+      <c r="G16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" t="e">
+        <v>10807</v>
+      </c>
+      <c r="J16">
         <f>VLOOKUP(H16,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" ht="13" x14ac:dyDescent="0.15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I17" t="e">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3298,13 +3632,42 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="9:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I18" t="e">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J18" t="e">
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I19" t="e">
+        <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20" t="e">
+        <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
+        <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3344,20 +3707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -3392,7 +3755,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3414,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3436,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3458,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -3480,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3502,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3524,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -3546,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -3555,7 +3918,7 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -3568,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3590,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3612,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3634,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3656,16 +4019,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14">
-        <v>8657</v>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="11">
+        <v>8141</v>
       </c>
       <c r="C14">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A13) + COUNTIF(Laptops!$E:$E,Benchmarks!$A13) + COUNTIF(Servers!$E:$E,Benchmarks!$A13)</f>
-        <v>2</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A26) + COUNTIF(Laptops!$E:$E,Benchmarks!$A26) + COUNTIF(Servers!$E:$E,Benchmarks!$A26)</f>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
@@ -3678,16 +4041,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>145</v>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="B15">
-        <v>8765</v>
+        <v>8657</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A14) + COUNTIF(Laptops!$E:$E,Benchmarks!$A14) + COUNTIF(Servers!$E:$E,Benchmarks!$A14)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A13) + COUNTIF(Laptops!$E:$E,Benchmarks!$A13) + COUNTIF(Servers!$E:$E,Benchmarks!$A13)</f>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -3700,16 +4063,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>96</v>
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B16">
-        <v>9045</v>
+        <v>8765</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A15) + COUNTIF(Laptops!$E:$E,Benchmarks!$A15) + COUNTIF(Servers!$E:$E,Benchmarks!$A15)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A14) + COUNTIF(Laptops!$E:$E,Benchmarks!$A14) + COUNTIF(Servers!$E:$E,Benchmarks!$A14)</f>
+        <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>186</v>
@@ -3722,15 +4085,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B17">
-        <v>9419</v>
+        <v>9045</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A16) + COUNTIF(Laptops!$E:$E,Benchmarks!$A16) + COUNTIF(Servers!$E:$E,Benchmarks!$A16)</f>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A15) + COUNTIF(Laptops!$E:$E,Benchmarks!$A15) + COUNTIF(Servers!$E:$E,Benchmarks!$A15)</f>
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -3744,16 +4107,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>131</v>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>9447</v>
+        <v>9419</v>
       </c>
       <c r="C18">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A17) + COUNTIF(Laptops!$E:$E,Benchmarks!$A17) + COUNTIF(Servers!$E:$E,Benchmarks!$A17)</f>
-        <v>5</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A16) + COUNTIF(Laptops!$E:$E,Benchmarks!$A16) + COUNTIF(Servers!$E:$E,Benchmarks!$A16)</f>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>103</v>
@@ -3766,16 +4129,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>156</v>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B19">
-        <v>9995</v>
+        <v>9447</v>
       </c>
       <c r="C19">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
-        <v>3</v>
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A17) + COUNTIF(Laptops!$E:$E,Benchmarks!$A17) + COUNTIF(Servers!$E:$E,Benchmarks!$A17)</f>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>86</v>
@@ -3788,173 +4151,221 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20">
+        <v>9995</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20">
+        <v>1166</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E28) + COUNTIF(Laptops!$H:$H,Benchmarks!$E28) + COUNTIF(Servers!$H:$H,Benchmarks!$E28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>10039</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A19) + COUNTIF(Laptops!$E:$E,Benchmarks!$A19) + COUNTIF(Servers!$E:$E,Benchmarks!$A19)</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1198</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E26) + COUNTIF(Laptops!$H:$H,Benchmarks!$E26) + COUNTIF(Servers!$H:$H,Benchmarks!$E26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>10270</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A20) + COUNTIF(Laptops!$E:$E,Benchmarks!$A20) + COUNTIF(Servers!$E:$E,Benchmarks!$A20)</f>
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>1298</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E20) + COUNTIF(Laptops!$H:$H,Benchmarks!$E20) + COUNTIF(Servers!$H:$H,Benchmarks!$E20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="11">
+        <v>10807</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A25) + COUNTIF(Laptops!$E:$E,Benchmarks!$A25) + COUNTIF(Servers!$E:$E,Benchmarks!$A25)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>10270</v>
-      </c>
-      <c r="C21">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A20) + COUNTIF(Laptops!$E:$E,Benchmarks!$A20) + COUNTIF(Servers!$E:$E,Benchmarks!$A20)</f>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23">
+        <v>1299</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E21) + COUNTIF(Laptops!$H:$H,Benchmarks!$E21) + COUNTIF(Servers!$H:$H,Benchmarks!$E21)</f>
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21">
-        <v>1299</v>
-      </c>
-      <c r="G21">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E21) + COUNTIF(Laptops!$H:$H,Benchmarks!$E21) + COUNTIF(Servers!$H:$H,Benchmarks!$E21)</f>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24">
+        <v>10808</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A27) + COUNTIF(Laptops!$E:$E,Benchmarks!$A27) + COUNTIF(Servers!$E:$E,Benchmarks!$A27)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="E24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24">
+        <v>1409</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E22) + COUNTIF(Laptops!$H:$H,Benchmarks!$E22) + COUNTIF(Servers!$H:$H,Benchmarks!$E22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>119</v>
       </c>
-      <c r="B22">
+      <c r="B25" s="12">
         <v>16874</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A21) + COUNTIF(Laptops!$E:$E,Benchmarks!$A21) + COUNTIF(Servers!$E:$E,Benchmarks!$A21)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25">
+        <v>1682</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E23) + COUNTIF(Laptops!$H:$H,Benchmarks!$E23) + COUNTIF(Servers!$H:$H,Benchmarks!$E23)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22">
-        <v>1409</v>
-      </c>
-      <c r="G22">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E22) + COUNTIF(Laptops!$H:$H,Benchmarks!$E22) + COUNTIF(Servers!$H:$H,Benchmarks!$E22)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="14">
+        <v>18083</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A28) + COUNTIF(Laptops!$E:$E,Benchmarks!$A28) + COUNTIF(Servers!$E:$E,Benchmarks!$A28)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2064</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E27) + COUNTIF(Laptops!$H:$H,Benchmarks!$E27) + COUNTIF(Servers!$H:$H,Benchmarks!$E27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B23">
+      <c r="B27" s="13">
         <v>21216</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A22) + COUNTIF(Laptops!$E:$E,Benchmarks!$A22) + COUNTIF(Servers!$E:$E,Benchmarks!$A22)</f>
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23">
-        <v>1682</v>
-      </c>
-      <c r="G23">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E23) + COUNTIF(Laptops!$H:$H,Benchmarks!$E23) + COUNTIF(Servers!$H:$H,Benchmarks!$E23)</f>
+      <c r="E27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2316</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E24) + COUNTIF(Laptops!$H:$H,Benchmarks!$E24) + COUNTIF(Servers!$H:$H,Benchmarks!$E24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="13">
+        <v>24596</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A23) + COUNTIF(Laptops!$E:$E,Benchmarks!$A23) + COUNTIF(Servers!$E:$E,Benchmarks!$A23)</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3060</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E25) + COUNTIF(Laptops!$H:$H,Benchmarks!$E25) + COUNTIF(Servers!$H:$H,Benchmarks!$E25)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24">
-        <v>24596</v>
-      </c>
-      <c r="C24">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A23) + COUNTIF(Laptops!$E:$E,Benchmarks!$A23) + COUNTIF(Servers!$E:$E,Benchmarks!$A23)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24">
-        <v>2316</v>
-      </c>
-      <c r="G24">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E24) + COUNTIF(Laptops!$H:$H,Benchmarks!$E24) + COUNTIF(Servers!$H:$H,Benchmarks!$E24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A25) + COUNTIF(Laptops!$E:$E,Benchmarks!$A25) + COUNTIF(Servers!$E:$E,Benchmarks!$A25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25">
-        <v>3060</v>
-      </c>
-      <c r="G25">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E25) + COUNTIF(Laptops!$H:$H,Benchmarks!$E25) + COUNTIF(Servers!$H:$H,Benchmarks!$E25)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A26) + COUNTIF(Laptops!$E:$E,Benchmarks!$A26) + COUNTIF(Servers!$E:$E,Benchmarks!$A26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E26) + COUNTIF(Laptops!$H:$H,Benchmarks!$E26) + COUNTIF(Servers!$H:$H,Benchmarks!$E26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A27) + COUNTIF(Laptops!$E:$E,Benchmarks!$A27) + COUNTIF(Servers!$E:$E,Benchmarks!$A27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E27) + COUNTIF(Laptops!$H:$H,Benchmarks!$E27) + COUNTIF(Servers!$H:$H,Benchmarks!$E27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28">
-        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A28) + COUNTIF(Laptops!$E:$E,Benchmarks!$A28) + COUNTIF(Servers!$E:$E,Benchmarks!$A28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E28) + COUNTIF(Laptops!$H:$H,Benchmarks!$E28) + COUNTIF(Servers!$H:$H,Benchmarks!$E28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A29) + COUNTIF(Laptops!$E:$E,Benchmarks!$A29) + COUNTIF(Servers!$E:$E,Benchmarks!$A29)</f>
         <v>0</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29">
+        <v>13733</v>
+      </c>
       <c r="G29">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E29) + COUNTIF(Laptops!$H:$H,Benchmarks!$E29) + COUNTIF(Servers!$H:$H,Benchmarks!$E29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A30) + COUNTIF(Laptops!$E:$E,Benchmarks!$A30) + COUNTIF(Servers!$E:$E,Benchmarks!$A30)</f>
         <v>0</v>
@@ -3964,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A31) + COUNTIF(Laptops!$E:$E,Benchmarks!$A31) + COUNTIF(Servers!$E:$E,Benchmarks!$A31)</f>
         <v>0</v>
@@ -3975,10 +4386,74 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C24">
-    <sortCondition ref="B2:B24"/>
+  <sortState ref="E3:G29">
+    <sortCondition ref="F3:F29"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B24 B27 B29:B1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F25 F28:F1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3236BDF5-298A-4FA2-82E8-B9A95F4B22A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FE085B0-670C-4141-9EAB-72C13D341AFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F26 F28:F1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B25 B27 B29:B1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4002,36 +4477,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
+  <conditionalFormatting sqref="B1:B27 B29:B1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3236BDF5-298A-4FA2-82E8-B9A95F4B22A6}</x14:id>
-        </ext>
-      </extLst>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
+  <conditionalFormatting sqref="B2:B31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FE085B0-670C-4141-9EAB-72C13D341AFA}</x14:id>
-        </ext>
-      </extLst>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="232">
   <si>
     <t>Usage</t>
   </si>
@@ -603,9 +603,6 @@
     <t>i7-6700@3.4GHZ</t>
   </si>
   <si>
-    <t>Joseph Ramsey</t>
-  </si>
-  <si>
     <t>ndw1467</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>i7 890@2.93GHZ</t>
   </si>
   <si>
-    <t>Dan Nixon</t>
-  </si>
-  <si>
     <t>Anthony Lim</t>
   </si>
   <si>
@@ -762,10 +756,52 @@
     <t>1TB NVMe + 3* 2TB IDE</t>
   </si>
   <si>
-    <t>Dual nVidia GTX1080 Ti</t>
-  </si>
-  <si>
     <t>Dan - Imaging workstation</t>
+  </si>
+  <si>
+    <t>ndw1893</t>
+  </si>
+  <si>
+    <t>ndw1891</t>
+  </si>
+  <si>
+    <t>ndw1892</t>
+  </si>
+  <si>
+    <t>nVidia GTX1080 Ti</t>
+  </si>
+  <si>
+    <t>SSD + 1TB</t>
+  </si>
+  <si>
+    <t>ndw1879</t>
+  </si>
+  <si>
+    <t>ndw1880</t>
+  </si>
+  <si>
+    <t>Joseph Ramsey -&gt; Student 1</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Thomas Jubb</t>
+  </si>
+  <si>
+    <t>Loaned From Tom</t>
+  </si>
+  <si>
+    <t>AMD Radeon R5 430</t>
+  </si>
+  <si>
+    <t>512GB NVMe</t>
   </si>
 </sst>
 </file>
@@ -1504,6 +1540,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1797,10 +1929,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1867,16 +1999,16 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -1885,7 +2017,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1919,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -1932,7 +2064,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1966,7 +2098,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -2065,7 +2197,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2083,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2133,7 +2265,7 @@
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>61</v>
@@ -2233,12 +2365,12 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2269,7 +2401,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>153</v>
@@ -2303,7 +2435,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>155</v>
@@ -2335,7 +2467,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>149</v>
       </c>
@@ -2369,7 +2501,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2403,7 +2535,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -2423,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>146</v>
@@ -2437,12 +2569,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2457,7 +2589,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>146</v>
@@ -2471,124 +2603,184 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I21">
-        <f>VLOOKUP(Laptops!E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>8141</v>
+        <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10808</v>
       </c>
       <c r="J21">
         <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1166</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I22">
-        <f>VLOOKUP(Laptops!E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>8141</v>
+        <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10808</v>
       </c>
       <c r="J22">
         <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1166</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I23" t="e">
-        <f>VLOOKUP(Laptops!E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>220</v>
+      </c>
+      <c r="I23">
+        <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18083</v>
       </c>
       <c r="J23">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>13733</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="I24" t="e">
-        <f>VLOOKUP(Laptops!E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" t="e">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24">
+        <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10808</v>
+      </c>
+      <c r="J24">
         <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G25" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" t="e">
-        <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1031</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25">
+        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10808</v>
       </c>
       <c r="J25">
         <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
       <c r="I26" t="e">
         <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2598,7 +2790,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
       <c r="I27" t="e">
         <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -2608,9 +2801,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
       <c r="I28" t="e">
-        <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
@@ -2618,8 +2812,78 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" t="e">
+        <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29">
+        <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I30" t="e">
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I31" t="e">
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I32" t="e">
+        <f>VLOOKUP(E32,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <f>VLOOKUP(H32,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I26:I1048576 I1:I23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J1048576 J1:J23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2631,7 +2895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J24:J25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2747,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2778,25 +3042,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2914,7 +3178,7 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2945,28 +3209,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2979,25 +3243,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3253,10 +3517,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -3321,10 +3585,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -3355,10 +3619,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -3389,7 +3653,7 @@
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -3423,10 +3687,10 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3556,19 +3820,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -3577,7 +3841,7 @@
         <v>157</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3590,19 +3854,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -3611,7 +3875,7 @@
         <v>157</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3711,7 +3975,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3992,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
@@ -3738,7 +4002,7 @@
         <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3855,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -3899,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -3911,14 +4175,14 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9">
         <v>5397</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -4021,7 +4285,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4043,7 +4307,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4075,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4163,7 +4427,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F20">
         <v>1166</v>
@@ -4185,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" s="4">
         <v>1198</v>
@@ -4219,7 +4483,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4241,7 +4505,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4285,7 +4549,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4295,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F26" s="11">
         <v>2064</v>
@@ -4339,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="13">
         <v>3060</v>
@@ -4355,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F29">
         <v>13733</v>
@@ -4370,9 +4634,15 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A30) + COUNTIF(Laptops!$E:$E,Benchmarks!$A30) + COUNTIF(Servers!$E:$E,Benchmarks!$A30)</f>
         <v>0</v>
       </c>
+      <c r="E30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30">
+        <v>1031</v>
+      </c>
       <c r="G30">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E30) + COUNTIF(Laptops!$H:$H,Benchmarks!$E30) + COUNTIF(Servers!$H:$H,Benchmarks!$E30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725"/>
+    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="230">
   <si>
     <t>Usage</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Spare Laptop 1</t>
   </si>
   <si>
-    <t>3GB</t>
-  </si>
-  <si>
     <t>Spare Laptop 2</t>
   </si>
   <si>
@@ -441,21 +438,9 @@
     <t>Intel Q35</t>
   </si>
   <si>
-    <t>Performance tests</t>
-  </si>
-  <si>
-    <t>mantidlnx02</t>
-  </si>
-  <si>
-    <t>OptiPlex GX620</t>
-  </si>
-  <si>
     <t>Pentium 4 CPU 3.40GHz (2 core no HT)</t>
   </si>
   <si>
-    <t>250GB IDE</t>
-  </si>
-  <si>
     <t>Autoreduction server</t>
   </si>
   <si>
@@ -717,9 +702,6 @@
     <t>Mike Hart Laptop</t>
   </si>
   <si>
-    <t>?? Builder</t>
-  </si>
-  <si>
     <t>ndw1850</t>
   </si>
   <si>
@@ -802,6 +784,18 @@
   </si>
   <si>
     <t>512GB NVMe</t>
+  </si>
+  <si>
+    <t>Store decomission</t>
+  </si>
+  <si>
+    <t>SL7 Builder</t>
+  </si>
+  <si>
+    <t>mantid-mac-pro</t>
+  </si>
+  <si>
+    <t>Mac builds</t>
   </si>
 </sst>
 </file>
@@ -996,7 +990,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1039,7 +1033,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1082,7 +1076,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1125,7 +1119,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1168,7 +1162,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1211,7 +1205,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1254,7 +1248,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1302,7 +1296,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1350,7 +1344,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1398,7 +1392,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1454,7 +1448,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1502,7 +1496,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1550,7 +1544,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1598,12 +1592,60 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8867775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1931,7 +1973,7 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1982,7 +2024,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1999,16 +2041,16 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -2017,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2051,7 +2093,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2064,7 +2106,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2098,7 +2140,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -2132,7 +2174,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2197,7 +2239,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2215,10 +2257,10 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2265,7 +2307,7 @@
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>61</v>
@@ -2333,10 +2375,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -2351,7 +2393,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2367,25 +2409,25 @@
     </row>
     <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -2401,25 +2443,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -2435,10 +2477,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2447,16 +2489,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2469,10 +2511,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -2481,16 +2523,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2503,10 +2545,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2515,16 +2557,16 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2540,25 +2582,25 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2571,28 +2613,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2608,25 +2650,25 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2639,28 +2681,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2673,28 +2715,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2707,28 +2749,28 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2739,33 +2781,33 @@
         <v>1031</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2776,7 +2818,7 @@
         <v>1031</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2814,10 +2856,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G29" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I29" t="e">
         <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2969,7 +3011,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3011,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3042,25 +3084,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3076,25 +3118,25 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3107,7 +3149,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3141,19 +3183,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -3162,7 +3204,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3175,19 +3217,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -3196,7 +3238,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3209,28 +3251,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3243,25 +3285,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3357,10 +3399,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3376,7 +3418,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3408,205 +3450,205 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>405</v>
+        <v>8014</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(H3,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>8014</v>
+        <v>4736</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(H4,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>4736</v>
+        <v>9447</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(H5,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>132</v>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9447</v>
+        <v>6345</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(H6,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>86</v>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>6345</v>
+        <v>9447</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(H7,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3617,231 +3659,234 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>132</v>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9447</v>
+        <v>21216</v>
       </c>
       <c r="J9">
         <f>VLOOKUP(H9,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
+        <v>166</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
         <v>91</v>
       </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
       <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
-        <v>94</v>
+        <v>131</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>21216</v>
+        <v>24596</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>170</v>
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>24596</v>
+        <v>9045</v>
       </c>
       <c r="J11">
         <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9045</v>
+        <v>16874</v>
       </c>
       <c r="J12">
         <f>VLOOKUP(H12,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="3">
+        <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>2877</v>
+      </c>
+      <c r="J13" s="3">
+        <f>VLOOKUP(H13,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1070</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13">
-        <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>16874</v>
-      </c>
-      <c r="J13">
-        <f>VLOOKUP(H13,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="D14" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>2877</v>
-      </c>
-      <c r="J14" s="3">
+        <v>10807</v>
+      </c>
+      <c r="J14">
         <f>VLOOKUP(H14,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3852,43 +3897,31 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>205</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10807</v>
-      </c>
-      <c r="J16">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
         <f>VLOOKUP(H16,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" t="e">
-        <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(E34,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
@@ -3896,16 +3929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" t="e">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3915,7 +3939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" t="e">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3925,14 +3949,15 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I20" t="e">
-        <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3986,23 +4011,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4021,29 +4046,29 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>405</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A2) + COUNTIF(Laptops!$E:$E,Benchmarks!$A2) + COUNTIF(Servers!$E:$E,Benchmarks!$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E2) + COUNTIF(Laptops!$H:$H,Benchmarks!$E2) + COUNTIF(Servers!$H:$H,Benchmarks!$E2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -4053,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -4087,7 +4112,7 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>2877</v>
@@ -4097,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4109,7 +4134,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -4119,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -4153,7 +4178,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -4163,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -4175,7 +4200,7 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>5397</v>
@@ -4241,7 +4266,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>6345</v>
@@ -4251,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -4273,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -4285,7 +4310,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4307,7 +4332,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4329,7 +4354,7 @@
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>8765</v>
@@ -4339,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4351,7 +4376,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>9045</v>
@@ -4361,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -4383,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <v>1070</v>
@@ -4395,7 +4420,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>9447</v>
@@ -4405,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>1097</v>
@@ -4417,7 +4442,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>9995</v>
@@ -4427,7 +4452,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F20">
         <v>1166</v>
@@ -4439,7 +4464,7 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <v>10039</v>
@@ -4449,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F21" s="4">
         <v>1198</v>
@@ -4483,7 +4508,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4493,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23">
         <v>1299</v>
@@ -4505,7 +4530,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4515,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F24">
         <v>1409</v>
@@ -4527,7 +4552,7 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B25" s="12">
         <v>16874</v>
@@ -4537,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25">
         <v>1682</v>
@@ -4549,7 +4574,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4559,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F26" s="11">
         <v>2064</v>
@@ -4571,7 +4596,7 @@
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="13">
         <v>21216</v>
@@ -4581,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F27" s="12">
         <v>2316</v>
@@ -4593,7 +4618,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B28" s="13">
         <v>24596</v>
@@ -4603,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F28" s="13">
         <v>3060</v>
@@ -4619,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F29">
         <v>13733</v>
@@ -4635,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F30">
         <v>1031</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725" activeTab="2"/>
+    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="226">
   <si>
     <t>Usage</t>
   </si>
@@ -303,9 +303,6 @@
     <t>ndw902</t>
   </si>
   <si>
-    <t>Karl Palmen</t>
-  </si>
-  <si>
     <t>ndw934</t>
   </si>
   <si>
@@ -540,18 +537,6 @@
     <t>Desktops</t>
   </si>
   <si>
-    <t>Edward Brown</t>
-  </si>
-  <si>
-    <t>Brandon Hewer</t>
-  </si>
-  <si>
-    <t>ndw1453</t>
-  </si>
-  <si>
-    <t>Matthew Bowles</t>
-  </si>
-  <si>
     <t>ndw1468</t>
   </si>
   <si>
@@ -570,9 +555,6 @@
     <t>ATI Radeon R7 250</t>
   </si>
   <si>
-    <t>ndw1593</t>
-  </si>
-  <si>
     <t>Gemma Guest</t>
   </si>
   <si>
@@ -681,9 +663,6 @@
     <t>Store</t>
   </si>
   <si>
-    <t>Anton Picardo-Selg -&gt; Store</t>
-  </si>
-  <si>
     <t>ndlt887</t>
   </si>
   <si>
@@ -762,24 +741,9 @@
     <t>ndw1880</t>
   </si>
   <si>
-    <t>Joseph Ramsey -&gt; Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Student 4</t>
-  </si>
-  <si>
     <t>Thomas Jubb</t>
   </si>
   <si>
-    <t>Loaned From Tom</t>
-  </si>
-  <si>
     <t>AMD Radeon R5 430</t>
   </si>
   <si>
@@ -796,6 +760,30 @@
   </si>
   <si>
     <t>Mac builds</t>
+  </si>
+  <si>
+    <t>Sam Jones</t>
+  </si>
+  <si>
+    <t>Sam Jenkins</t>
+  </si>
+  <si>
+    <t>Rob Applin</t>
+  </si>
+  <si>
+    <t>ndw1597</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>Andre Bamidele</t>
+  </si>
+  <si>
+    <t>Brandon Hewer -&gt; store</t>
+  </si>
+  <si>
+    <t>Anton Picardo-Selg -&gt; Where is this?</t>
   </si>
 </sst>
 </file>
@@ -920,7 +908,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -962,6 +950,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1678,6 +1667,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1971,15 +2056,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
@@ -2024,7 +2109,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2041,16 +2126,16 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -2059,7 +2144,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2093,7 +2178,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2106,7 +2191,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2139,8 +2224,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>190</v>
+      <c r="A6" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -2154,8 +2239,8 @@
       <c r="E6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -2174,7 +2259,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2206,27 +2291,27 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2237,9 +2322,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>219</v>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2257,10 +2342,10 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2272,7 +2357,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
@@ -2307,7 +2392,7 @@
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>61</v>
@@ -2375,59 +2460,59 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
+        <v>9995</v>
       </c>
       <c r="J13">
         <f>VLOOKUP(H13,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -2442,29 +2527,29 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>187</v>
+      <c r="A15" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>149</v>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
+        <v>147</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2472,15 +2557,15 @@
       </c>
       <c r="J15">
         <f>VLOOKUP(H15,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2489,16 +2574,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>152</v>
+      <c r="G16" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2509,12 +2594,12 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>144</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -2523,16 +2608,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2543,64 +2628,64 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>25</v>
+      <c r="D18" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>10039</v>
       </c>
       <c r="J18">
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2611,64 +2696,64 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>161</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10039</v>
+        <v>10808</v>
       </c>
       <c r="J20">
         <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2679,98 +2764,98 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>222</v>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
+        <v>18083</v>
       </c>
       <c r="J22">
         <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
+        <v>13733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" t="s">
+        <v>212</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>18083</v>
+        <v>10808</v>
       </c>
       <c r="J23">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>13733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H24" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2780,51 +2865,22 @@
         <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1031</v>
       </c>
-      <c r="K24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" t="s">
-        <v>224</v>
-      </c>
-      <c r="I25">
-        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
-      </c>
-      <c r="J25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="I25" t="e">
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
         <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1031</v>
-      </c>
-      <c r="K25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="I26" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J26" t="e">
@@ -2832,10 +2888,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="I27" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
@@ -2843,36 +2899,35 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I28" t="e">
-        <f>VLOOKUP(Laptops!E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G29" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" t="e">
         <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29">
+      <c r="J28">
+        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" t="e">
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
         <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I30" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J30" t="e">
@@ -2880,9 +2935,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I31" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J31" t="e">
@@ -2890,19 +2945,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I32" t="e">
-        <f>VLOOKUP(E32,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <f>VLOOKUP(H32,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I26:I1048576 I1:I23">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="I25:I1048576 I1:I22">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2913,8 +2958,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J1048576 J1:J23">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="J25:J1048576 J1:J22">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2925,7 +2970,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I25">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2937,7 +3006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J25">
+  <conditionalFormatting sqref="J24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3011,7 +3080,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3053,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3084,25 +3153,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3115,28 +3184,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3149,7 +3218,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3183,19 +3252,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -3204,7 +3273,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3217,19 +3286,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -3238,7 +3307,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3251,28 +3320,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3285,25 +3354,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3401,7 +3470,7 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3452,33 +3521,33 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3491,28 +3560,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
         <v>107</v>
-      </c>
-      <c r="H4" t="s">
-        <v>108</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3525,19 +3594,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
@@ -3546,7 +3615,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3559,28 +3628,28 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>85</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3593,28 +3662,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3627,28 +3696,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3661,28 +3730,28 @@
     </row>
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>90</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3695,28 +3764,28 @@
     </row>
     <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
         <v>130</v>
       </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3729,22 +3798,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
         <v>95</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -3760,28 +3829,28 @@
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>115</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>117</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3794,28 +3863,28 @@
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I13" s="3">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3826,33 +3895,33 @@
         <v>1070</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3865,28 +3934,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3899,16 +3968,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3951,10 +4020,10 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
@@ -4011,23 +4080,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4046,7 +4115,7 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -4056,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -4068,7 +4137,7 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -4078,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -4112,7 +4181,7 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>2877</v>
@@ -4122,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4134,7 +4203,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -4144,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -4166,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>324</v>
@@ -4178,7 +4247,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -4188,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -4200,7 +4269,7 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>5397</v>
@@ -4266,7 +4335,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>6345</v>
@@ -4276,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -4288,7 +4357,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>8014</v>
@@ -4298,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -4310,7 +4379,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4332,7 +4401,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4349,12 +4418,12 @@
       </c>
       <c r="G15">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E15) + COUNTIF(Laptops!$H:$H,Benchmarks!$E15) + COUNTIF(Servers!$H:$H,Benchmarks!$E15)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16">
         <v>8765</v>
@@ -4364,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4376,7 +4445,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>9045</v>
@@ -4386,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -4408,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18">
         <v>1070</v>
@@ -4420,7 +4489,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19">
         <v>9447</v>
@@ -4430,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>1097</v>
@@ -4442,17 +4511,17 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>9995</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F20">
         <v>1166</v>
@@ -4464,7 +4533,7 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B21">
         <v>10039</v>
@@ -4474,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F21" s="4">
         <v>1198</v>
@@ -4508,7 +4577,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4518,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23">
         <v>1299</v>
@@ -4530,7 +4599,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4540,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F24">
         <v>1409</v>
@@ -4552,7 +4621,7 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="12">
         <v>16874</v>
@@ -4562,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25">
         <v>1682</v>
@@ -4574,7 +4643,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4584,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F26" s="11">
         <v>2064</v>
@@ -4596,7 +4665,7 @@
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="13">
         <v>21216</v>
@@ -4606,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" s="12">
         <v>2316</v>
@@ -4618,7 +4687,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="13">
         <v>24596</v>
@@ -4628,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F28" s="13">
         <v>3060</v>
@@ -4644,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F29">
         <v>13733</v>
@@ -4660,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F30">
         <v>1031</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mantid\Documents\Project-Management\Hardware\RAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725"/>
+    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Laptops!$I$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
     <author>Nicholas Draper</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="233">
   <si>
     <t>Usage</t>
   </si>
@@ -651,18 +656,12 @@
     <t>i7 890@2.93GHZ</t>
   </si>
   <si>
-    <t>Anthony Lim</t>
-  </si>
-  <si>
     <t>Elliot Oram</t>
   </si>
   <si>
     <t>Matthew Andrew</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>ndlt887</t>
   </si>
   <si>
@@ -780,16 +779,43 @@
     <t>Andre Bamidele</t>
   </si>
   <si>
-    <t>Brandon Hewer -&gt; store</t>
-  </si>
-  <si>
     <t>Anton Picardo-Selg -&gt; Where is this?</t>
+  </si>
+  <si>
+    <t>ndw2008</t>
+  </si>
+  <si>
+    <t>Dimitar Desktop</t>
+  </si>
+  <si>
+    <t>512GB NVMe + 2TB HDD</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Alice Russell</t>
+  </si>
+  <si>
+    <t>Harry Saunders</t>
+  </si>
+  <si>
+    <t>ndw2041</t>
+  </si>
+  <si>
+    <t>Optiplex 5050</t>
+  </si>
+  <si>
+    <t>Build Server (jail cell)</t>
+  </si>
+  <si>
+    <t>i7-8700@3.2GHZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -962,6 +988,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1763,6 +1792,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2053,13 +2178,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2191,7 +2316,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2225,7 +2350,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -2259,7 +2384,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2293,7 +2418,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -2306,6 +2431,9 @@
       </c>
       <c r="E8" t="s">
         <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -2324,7 +2452,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2342,7 +2470,7 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>169</v>
@@ -2460,7 +2588,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>154</v>
@@ -2494,7 +2622,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>143</v>
@@ -2528,7 +2656,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>145</v>
@@ -2562,10 +2690,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2664,7 +2792,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>155</v>
@@ -2701,16 +2829,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
@@ -2719,7 +2847,7 @@
         <v>157</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2732,19 +2860,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2753,7 +2881,7 @@
         <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2766,28 +2894,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2800,28 +2928,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2834,28 +2962,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2867,25 +2995,71 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="I25" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
+      <c r="A25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25">
+        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10808</v>
+      </c>
+      <c r="J25">
         <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="I26" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" t="e">
+      <c r="A26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I26">
+        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10808</v>
+      </c>
+      <c r="J26">
         <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2946,7 +3120,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I25:I1048576 I1:I22">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2958,56 +3132,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J1048576 J1:J22">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3025,7 +3151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
@@ -3320,28 +3446,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3354,25 +3480,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3465,13 +3591,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3895,7 +4021,7 @@
         <v>1070</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3903,16 +4029,16 @@
         <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
@@ -3921,7 +4047,7 @@
         <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3934,19 +4060,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -3955,7 +4081,7 @@
         <v>147</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3968,10 +4094,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -4068,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4276,7 +4402,7 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -4379,7 +4505,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4521,7 +4647,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20">
         <v>1166</v>
@@ -4543,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F21" s="4">
         <v>1198</v>
@@ -4572,12 +4698,12 @@
       </c>
       <c r="G22">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E20) + COUNTIF(Laptops!$H:$H,Benchmarks!$E20) + COUNTIF(Servers!$H:$H,Benchmarks!$E20)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4599,7 +4725,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4643,7 +4769,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4653,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F26" s="11">
         <v>2064</v>
@@ -4708,12 +4834,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29">
+        <v>15130</v>
+      </c>
       <c r="C29">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A29) + COUNTIF(Laptops!$E:$E,Benchmarks!$A29) + COUNTIF(Servers!$E:$E,Benchmarks!$A29)</f>
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F29">
         <v>13733</v>
@@ -4729,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30">
         <v>1031</v>
@@ -4753,7 +4885,7 @@
   <sortState ref="E3:G29">
     <sortCondition ref="F3:F29"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B24 B27 B29:B1048576">
+  <conditionalFormatting sqref="B1:B24 B29:B1048576 B27">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4817,7 +4949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B25 B27 B29:B1048576">
+  <conditionalFormatting sqref="B1:B25 B29:B1048576 B27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725" activeTab="3"/>
+    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="229">
   <si>
     <t>Usage</t>
   </si>
@@ -218,12 +218,6 @@
     <t>Intel HD 4000</t>
   </si>
   <si>
-    <t>Owen Arnold Desktop</t>
-  </si>
-  <si>
-    <t>ndw864</t>
-  </si>
-  <si>
     <t>Precision T5500</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>NVIDIA GeForce GT 650M 1024 MB</t>
   </si>
   <si>
-    <t>Anders Markvardsen</t>
-  </si>
-  <si>
     <t>i7-3770@3.4GHZ</t>
   </si>
   <si>
@@ -278,18 +269,12 @@
     <t>256GB SSD + 500GB 7200rpm IDE</t>
   </si>
   <si>
-    <t>ndw900</t>
-  </si>
-  <si>
     <t>Precision T1500</t>
   </si>
   <si>
     <t>i7 870 @ 2.93GHz</t>
   </si>
   <si>
-    <t>90GB SSD + 1TB</t>
-  </si>
-  <si>
     <t>NVIDIA Quadro 600</t>
   </si>
   <si>
@@ -578,9 +563,6 @@
     <t>ndw1467</t>
   </si>
   <si>
-    <t>ndw1730</t>
-  </si>
-  <si>
     <t>256GB NVMe + 2TB 7200rpm IDE</t>
   </si>
   <si>
@@ -647,18 +629,9 @@
     <t>Anders Markvardsen Laptop</t>
   </si>
   <si>
-    <t>ndw892</t>
-  </si>
-  <si>
-    <t>Optiplex 980</t>
-  </si>
-  <si>
     <t>i7 890@2.93GHZ</t>
   </si>
   <si>
-    <t>Elliot Oram</t>
-  </si>
-  <si>
     <t>Matthew Andrew</t>
   </si>
   <si>
@@ -740,9 +713,6 @@
     <t>ndw1880</t>
   </si>
   <si>
-    <t>Thomas Jubb</t>
-  </si>
-  <si>
     <t>AMD Radeon R5 430</t>
   </si>
   <si>
@@ -779,9 +749,6 @@
     <t>Andre Bamidele</t>
   </si>
   <si>
-    <t>Anton Picardo-Selg -&gt; Where is this?</t>
-  </si>
-  <si>
     <t>ndw2008</t>
   </si>
   <si>
@@ -810,13 +777,34 @@
   </si>
   <si>
     <t>i7-8700@3.2GHZ</t>
+  </si>
+  <si>
+    <t>ndw2045</t>
+  </si>
+  <si>
+    <t>Tom Titcombe</t>
+  </si>
+  <si>
+    <t>Spare?</t>
+  </si>
+  <si>
+    <t>ndw1452</t>
+  </si>
+  <si>
+    <t>Imaging PC  Loan - Tino?</t>
+  </si>
+  <si>
+    <t>Owen Arnold Desktop - Gemma's desk</t>
+  </si>
+  <si>
+    <t>ndw846</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -880,8 +868,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +897,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,12 +929,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -977,9 +978,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1888,6 +1893,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2181,10 +2234,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2234,7 +2287,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2246,77 +2299,77 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5397</v>
+        <v>5679</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(H3,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>3060</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
+      <c r="A4" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>170</v>
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5679</v>
+        <v>5478</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(H4,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2325,19 +2378,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2350,161 +2403,161 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5478</v>
+        <v>8014</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(H6,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>684</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>231</v>
+      <c r="A7" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
+        <v>197</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5478</v>
+        <v>9419</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(H7,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>231</v>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>226</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>8014</v>
+        <v>9419</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(H8,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>9419</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <f>VLOOKUP(H9,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>3060</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
+      <c r="A10" t="s">
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -2518,68 +2571,42 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="5">
-        <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
-      </c>
-      <c r="J11" s="5">
-        <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
+      <c r="A12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
-        <v>54</v>
+      <c r="G12" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
+        <v>9995</v>
       </c>
       <c r="J12">
         <f>VLOOKUP(H12,Benchmarks!$E$2:$F$947,2,FALSE)</f>
@@ -2588,25 +2615,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2621,29 +2648,29 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>228</v>
+      <c r="A14" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>144</v>
+      <c r="D14" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
+        <v>142</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2651,15 +2678,15 @@
       </c>
       <c r="J14">
         <f>VLOOKUP(H14,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2668,16 +2695,16 @@
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>147</v>
+      <c r="G15" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2688,12 +2715,12 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>218</v>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2702,16 +2729,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>62</v>
+      <c r="G16" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2724,164 +2751,164 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>10039</v>
       </c>
       <c r="J17">
         <f>VLOOKUP(H17,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1409</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10039</v>
+        <v>10808</v>
       </c>
       <c r="J18">
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10039</v>
+        <v>10808</v>
       </c>
       <c r="J19">
         <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1007</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>48</v>
+      <c r="A20" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
+        <v>18083</v>
       </c>
       <c r="J20">
         <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>13733</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>197</v>
+      <c r="G21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2889,67 +2916,67 @@
       </c>
       <c r="J21">
         <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" t="s">
-        <v>202</v>
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" t="s">
         <v>200</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>18083</v>
+        <v>10808</v>
       </c>
       <c r="J22">
         <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>13733</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>217</v>
+      <c r="A23" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
-      <c r="G23" t="s">
-        <v>211</v>
-      </c>
-      <c r="H23" t="s">
-        <v>210</v>
+      <c r="G23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2957,33 +2984,33 @@
       </c>
       <c r="J23">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1031</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>196</v>
+      <c r="D24" t="s">
+        <v>219</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" t="s">
-        <v>210</v>
+      <c r="G24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2991,33 +3018,33 @@
       </c>
       <c r="J24">
         <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>224</v>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>196</v>
+      <c r="D25" t="s">
+        <v>219</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3029,43 +3056,24 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26">
-        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
+        <v>169</v>
+      </c>
+      <c r="I26" t="e">
+        <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J26">
         <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
       <c r="I27" t="e">
-        <f>VLOOKUP(Laptops!E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
@@ -3074,48 +3082,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I28" t="e">
-        <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="e">
         <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I29" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
         <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I30" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I31" t="e">
-        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3157,7 +3139,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3206,33 +3188,33 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3248,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3279,25 +3261,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3310,28 +3292,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3344,7 +3326,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3378,19 +3360,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -3399,7 +3381,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3412,19 +3394,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -3433,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3446,28 +3428,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3480,25 +3462,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3647,33 +3629,33 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3686,28 +3668,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3720,19 +3702,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
@@ -3741,7 +3723,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3754,28 +3736,28 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3788,28 +3770,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3822,28 +3804,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3856,28 +3838,28 @@
     </row>
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3890,28 +3872,28 @@
     </row>
     <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3924,22 +3906,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -3955,28 +3937,28 @@
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3989,28 +3971,28 @@
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="I13" s="3">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4021,33 +4003,33 @@
         <v>1070</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4060,28 +4042,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4094,16 +4076,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4146,10 +4128,10 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
@@ -4194,7 +4176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4206,23 +4188,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4241,7 +4223,7 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -4251,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -4263,7 +4245,7 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -4273,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -4295,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -4307,7 +4289,7 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>2877</v>
@@ -4317,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4329,7 +4311,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -4339,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -4361,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>324</v>
@@ -4373,7 +4355,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -4383,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -4395,14 +4377,14 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>5397</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -4417,14 +4399,14 @@
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>5478</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A9) + COUNTIF(Laptops!$E:$E,Benchmarks!$A9) + COUNTIF(Servers!$E:$E,Benchmarks!$A9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -4439,14 +4421,14 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>5679</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A10) + COUNTIF(Laptops!$E:$E,Benchmarks!$A10) + COUNTIF(Servers!$E:$E,Benchmarks!$A10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -4461,7 +4443,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>6345</v>
@@ -4471,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -4483,7 +4465,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>8014</v>
@@ -4493,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -4505,7 +4487,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4515,19 +4497,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>684</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E14) + COUNTIF(Laptops!$H:$H,Benchmarks!$E14) + COUNTIF(Servers!$H:$H,Benchmarks!$E14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4549,7 +4531,7 @@
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>8765</v>
@@ -4559,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4571,7 +4553,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>9045</v>
@@ -4581,14 +4563,14 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F17">
         <v>1007</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E17) + COUNTIF(Laptops!$H:$H,Benchmarks!$E17) + COUNTIF(Servers!$H:$H,Benchmarks!$E17)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4603,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <v>1070</v>
@@ -4615,7 +4597,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B19">
         <v>9447</v>
@@ -4625,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>1097</v>
@@ -4637,7 +4619,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>9995</v>
@@ -4647,19 +4629,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F20">
         <v>1166</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E28) + COUNTIF(Laptops!$H:$H,Benchmarks!$E28) + COUNTIF(Servers!$H:$H,Benchmarks!$E28)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21">
         <v>10039</v>
@@ -4669,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F21" s="4">
         <v>1198</v>
@@ -4681,7 +4663,7 @@
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>10270</v>
@@ -4691,19 +4673,19 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>1298</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E20) + COUNTIF(Laptops!$H:$H,Benchmarks!$E20) + COUNTIF(Servers!$H:$H,Benchmarks!$E20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4713,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <v>1299</v>
@@ -4725,7 +4707,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4735,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F24">
         <v>1409</v>
@@ -4747,17 +4729,17 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B25" s="12">
         <v>16874</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A21) + COUNTIF(Laptops!$E:$E,Benchmarks!$A21) + COUNTIF(Servers!$E:$E,Benchmarks!$A21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>1682</v>
@@ -4769,7 +4751,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4779,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F26" s="11">
         <v>2064</v>
@@ -4791,7 +4773,7 @@
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B27" s="13">
         <v>21216</v>
@@ -4801,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F27" s="12">
         <v>2316</v>
@@ -4813,7 +4795,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B28" s="13">
         <v>24596</v>
@@ -4823,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F28" s="13">
         <v>3060</v>
@@ -4835,7 +4817,7 @@
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B29">
         <v>15130</v>
@@ -4845,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F29">
         <v>13733</v>
@@ -4861,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F30">
         <v>1031</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -21,11 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Laptops!$I$1:$I$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -287,9 +283,6 @@
     <t>256GB SSD + 500GB HDD</t>
   </si>
   <si>
-    <t>Roman Tolchenov</t>
-  </si>
-  <si>
     <t>ndw902</t>
   </si>
   <si>
@@ -689,9 +682,6 @@
     <t>1TB NVMe + 3* 2TB IDE</t>
   </si>
   <si>
-    <t>Dan - Imaging workstation</t>
-  </si>
-  <si>
     <t>ndw1893</t>
   </si>
   <si>
@@ -734,27 +724,12 @@
     <t>Sam Jones</t>
   </si>
   <si>
-    <t>Sam Jenkins</t>
-  </si>
-  <si>
-    <t>Rob Applin</t>
-  </si>
-  <si>
     <t>ndw1597</t>
   </si>
   <si>
-    <t>Spare</t>
-  </si>
-  <si>
-    <t>Andre Bamidele</t>
-  </si>
-  <si>
     <t>ndw2008</t>
   </si>
   <si>
-    <t>Dimitar Desktop</t>
-  </si>
-  <si>
     <t>512GB NVMe + 2TB HDD</t>
   </si>
   <si>
@@ -764,9 +739,6 @@
     <t>Alice Russell</t>
   </si>
   <si>
-    <t>Harry Saunders</t>
-  </si>
-  <si>
     <t>ndw2041</t>
   </si>
   <si>
@@ -782,9 +754,6 @@
     <t>ndw2045</t>
   </si>
   <si>
-    <t>Tom Titcombe</t>
-  </si>
-  <si>
     <t>Spare?</t>
   </si>
   <si>
@@ -798,13 +767,40 @@
   </si>
   <si>
     <t>ndw846</t>
+  </si>
+  <si>
+    <t>Dimitar - Imaging workstation</t>
+  </si>
+  <si>
+    <t>Rob Applin -&gt; Stephen Smith</t>
+  </si>
+  <si>
+    <t>Harry Saunders -&gt; Support</t>
+  </si>
+  <si>
+    <t>Lorenzo -&gt; David Fairbrother</t>
+  </si>
+  <si>
+    <t>Phillip Colebrooke</t>
+  </si>
+  <si>
+    <t>Ciara Nightingale</t>
+  </si>
+  <si>
+    <t>Connor Finn</t>
+  </si>
+  <si>
+    <t>Giovanni Di Sienna</t>
+  </si>
+  <si>
+    <t>Roman Tolchenov -&gt; Danny Hindson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -868,15 +864,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,11 +886,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,13 +913,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -978,13 +961,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1941,6 +1920,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2237,7 +2312,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2287,7 +2362,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2301,10 +2376,10 @@
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -2322,7 +2397,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2335,10 +2410,10 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2369,7 +2444,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2403,28 +2478,28 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2437,7 +2512,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -2455,10 +2530,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2505,7 +2580,7 @@
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
@@ -2538,7 +2613,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B10" t="s">
@@ -2573,33 +2648,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -2615,25 +2690,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2648,11 +2723,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>173</v>
+      <c r="A14" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2661,16 +2736,16 @@
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2682,11 +2757,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>208</v>
+      <c r="A15" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2695,7 +2770,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -2704,7 +2779,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2717,10 +2792,10 @@
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2729,16 +2804,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2751,28 +2826,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2784,29 +2859,29 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>223</v>
+      <c r="A18" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2819,28 +2894,28 @@
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2853,28 +2928,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2886,29 +2961,29 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>211</v>
+      <c r="A21" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2920,29 +2995,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>207</v>
+      <c r="A22" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2955,28 +3030,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2989,28 +3064,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3021,30 +3096,30 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>210</v>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3057,10 +3132,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" t="e">
         <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3188,7 +3263,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3230,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3261,25 +3336,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3292,28 +3367,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3326,7 +3401,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3360,19 +3435,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -3381,7 +3456,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3394,19 +3469,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -3415,7 +3490,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3428,28 +3503,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
         <v>176</v>
-      </c>
-      <c r="H10" t="s">
-        <v>177</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3462,25 +3537,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
         <v>176</v>
-      </c>
-      <c r="H11" t="s">
-        <v>177</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3579,7 +3654,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3629,33 +3704,33 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3668,28 +3743,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
         <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
         <v>101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>102</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3702,19 +3777,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
@@ -3723,7 +3798,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3736,28 +3811,28 @@
     </row>
     <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3770,28 +3845,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3804,28 +3879,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3838,28 +3913,28 @@
     </row>
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3872,28 +3947,28 @@
     </row>
     <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
         <v>124</v>
       </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3906,22 +3981,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -3937,28 +4012,28 @@
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
         <v>107</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>108</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>111</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3971,28 +4046,28 @@
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="I13" s="3">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4003,33 +4078,33 @@
         <v>1070</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4042,28 +4117,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4076,16 +4151,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4128,10 +4203,10 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
@@ -4188,23 +4263,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4223,7 +4298,7 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -4233,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -4245,7 +4320,7 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -4255,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -4289,7 +4364,7 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>2877</v>
@@ -4299,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4311,7 +4386,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -4321,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -4343,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>324</v>
@@ -4355,7 +4430,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -4365,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -4377,7 +4452,7 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>5397</v>
@@ -4443,7 +4518,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>6345</v>
@@ -4453,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -4465,7 +4540,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>8014</v>
@@ -4475,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -4487,7 +4562,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4509,7 +4584,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4531,7 +4606,7 @@
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16">
         <v>8765</v>
@@ -4541,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4553,7 +4628,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>9045</v>
@@ -4563,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -4585,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <v>1070</v>
@@ -4597,7 +4672,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19">
         <v>9447</v>
@@ -4607,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <v>1097</v>
@@ -4619,7 +4694,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20">
         <v>9995</v>
@@ -4629,7 +4704,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20">
         <v>1166</v>
@@ -4641,7 +4716,7 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21">
         <v>10039</v>
@@ -4651,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="4">
         <v>1198</v>
@@ -4685,7 +4760,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4695,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23">
         <v>1299</v>
@@ -4707,7 +4782,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4717,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24">
         <v>1409</v>
@@ -4729,7 +4804,7 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="12">
         <v>16874</v>
@@ -4739,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25">
         <v>1682</v>
@@ -4751,7 +4826,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4761,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="11">
         <v>2064</v>
@@ -4773,7 +4848,7 @@
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="13">
         <v>21216</v>
@@ -4783,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="12">
         <v>2316</v>
@@ -4795,7 +4870,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="13">
         <v>24596</v>
@@ -4805,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="13">
         <v>3060</v>
@@ -4817,7 +4892,7 @@
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B29">
         <v>15130</v>
@@ -4827,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F29">
         <v>13733</v>
@@ -4843,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F30">
         <v>1031</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Laptops!$I$1:$I$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="235">
   <si>
     <t>Usage</t>
   </si>
@@ -670,9 +669,6 @@
     <t>Optiplex 7050</t>
   </si>
   <si>
-    <t>Intel® HD Graphics 630</t>
-  </si>
-  <si>
     <t>Precision 7820</t>
   </si>
   <si>
@@ -772,15 +768,6 @@
     <t>Dimitar - Imaging workstation</t>
   </si>
   <si>
-    <t>Rob Applin -&gt; Stephen Smith</t>
-  </si>
-  <si>
-    <t>Harry Saunders -&gt; Support</t>
-  </si>
-  <si>
-    <t>Lorenzo -&gt; David Fairbrother</t>
-  </si>
-  <si>
     <t>Phillip Colebrooke</t>
   </si>
   <si>
@@ -793,7 +780,37 @@
     <t>Giovanni Di Sienna</t>
   </si>
   <si>
-    <t>Roman Tolchenov -&gt; Danny Hindson</t>
+    <t>Stephen Smith</t>
+  </si>
+  <si>
+    <t>Daniel Murphy</t>
+  </si>
+  <si>
+    <t>David Fairbrother</t>
+  </si>
+  <si>
+    <t>Danny Hindson</t>
+  </si>
+  <si>
+    <t>Richard Waite</t>
+  </si>
+  <si>
+    <t>NDW2223</t>
+  </si>
+  <si>
+    <t>Optiplex 7060</t>
+  </si>
+  <si>
+    <t>64GB</t>
+  </si>
+  <si>
+    <t>i7-8700@3.2GHz</t>
+  </si>
+  <si>
+    <t>Intel UHD Graphics 630</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 530</t>
   </si>
 </sst>
 </file>
@@ -918,7 +935,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -961,6 +978,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2016,6 +2036,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2309,10 +2377,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2376,10 +2444,10 @@
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
         <v>218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -2410,7 +2478,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -2444,7 +2512,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2478,7 +2546,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -2493,7 +2561,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -2512,7 +2580,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -2530,7 +2598,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>162</v>
@@ -2648,15 +2716,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>148</v>
@@ -2690,7 +2758,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>137</v>
@@ -2758,10 +2826,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2826,7 +2894,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>145</v>
@@ -2847,7 +2915,7 @@
         <v>149</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2860,10 +2928,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2881,7 +2949,7 @@
         <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2889,15 +2957,15 @@
       </c>
       <c r="J18">
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2915,7 +2983,7 @@
         <v>150</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2923,33 +2991,33 @@
       </c>
       <c r="J19">
         <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2962,10 +3030,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -2980,10 +3048,10 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2996,10 +3064,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -3014,10 +3082,10 @@
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3030,10 +3098,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -3048,10 +3116,10 @@
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3059,21 +3127,21 @@
       </c>
       <c r="J23">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>185</v>
@@ -3082,10 +3150,10 @@
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3093,21 +3161,21 @@
       </c>
       <c r="J24">
         <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>185</v>
@@ -3116,10 +3184,10 @@
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3127,38 +3195,62 @@
       </c>
       <c r="J25">
         <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1166</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="G26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26">
+        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>15130</v>
+      </c>
+      <c r="J26">
+        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I26" t="e">
+      <c r="I27" t="e">
         <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26">
-        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+      <c r="J27">
+        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I27" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
-        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I28" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
@@ -3168,11 +3260,21 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I29" t="e">
-        <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
         <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30" t="e">
+        <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3496,9 +3598,9 @@
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>8765</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="e">
         <f>VLOOKUP(H9,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1007</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3654,7 +3756,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4078,7 +4180,7 @@
         <v>1070</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4112,12 +4214,12 @@
       </c>
       <c r="J14">
         <f>VLOOKUP(H14,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1198</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>180</v>
@@ -4146,15 +4248,15 @@
       </c>
       <c r="J15">
         <f>VLOOKUP(H15,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1198</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -4252,7 +4354,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4637,15 +4739,15 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A15) + COUNTIF(Laptops!$E:$E,Benchmarks!$A15) + COUNTIF(Servers!$E:$E,Benchmarks!$A15)</f>
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>134</v>
+      <c r="E17" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="F17">
         <v>1007</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E17) + COUNTIF(Laptops!$H:$H,Benchmarks!$E17) + COUNTIF(Servers!$H:$H,Benchmarks!$E17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4660,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="F18">
-        <v>1070</v>
+        <v>1031</v>
       </c>
       <c r="G18">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E18) + COUNTIF(Laptops!$H:$H,Benchmarks!$E18) + COUNTIF(Servers!$H:$H,Benchmarks!$E18)</f>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E30) + COUNTIF(Laptops!$H:$H,Benchmarks!$E30) + COUNTIF(Servers!$H:$H,Benchmarks!$E30)</f>
         <v>1</v>
       </c>
     </row>
@@ -4682,14 +4784,14 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>1097</v>
+        <v>1070</v>
       </c>
       <c r="G19">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E19) + COUNTIF(Laptops!$H:$H,Benchmarks!$E19) + COUNTIF(Servers!$H:$H,Benchmarks!$E19)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E18) + COUNTIF(Laptops!$H:$H,Benchmarks!$E18) + COUNTIF(Servers!$H:$H,Benchmarks!$E18)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4703,14 +4805,14 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
         <v>4</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>187</v>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
       <c r="F20">
-        <v>1166</v>
+        <v>1097</v>
       </c>
       <c r="G20">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E28) + COUNTIF(Laptops!$H:$H,Benchmarks!$E28) + COUNTIF(Servers!$H:$H,Benchmarks!$E28)</f>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E19) + COUNTIF(Laptops!$H:$H,Benchmarks!$E19) + COUNTIF(Servers!$H:$H,Benchmarks!$E19)</f>
         <v>1</v>
       </c>
     </row>
@@ -4729,11 +4831,11 @@
         <v>183</v>
       </c>
       <c r="F21" s="4">
-        <v>1198</v>
+        <v>1122</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E26) + COUNTIF(Laptops!$H:$H,Benchmarks!$E26) + COUNTIF(Servers!$H:$H,Benchmarks!$E26)</f>
-        <v>2</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E21) + COUNTIF(Laptops!$H:$H,Benchmarks!$E21) + COUNTIF(Servers!$H:$H,Benchmarks!$E21)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4747,15 +4849,15 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A20) + COUNTIF(Laptops!$E:$E,Benchmarks!$A20) + COUNTIF(Servers!$E:$E,Benchmarks!$A20)</f>
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22">
-        <v>1298</v>
+      <c r="E22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1215</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E20) + COUNTIF(Laptops!$H:$H,Benchmarks!$E20) + COUNTIF(Servers!$H:$H,Benchmarks!$E20)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4770,14 +4872,14 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F23">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G23">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E21) + COUNTIF(Laptops!$H:$H,Benchmarks!$E21) + COUNTIF(Servers!$H:$H,Benchmarks!$E21)</f>
-        <v>2</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E22) + COUNTIF(Laptops!$H:$H,Benchmarks!$E22) + COUNTIF(Servers!$H:$H,Benchmarks!$E22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4791,14 +4893,14 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A27) + COUNTIF(Laptops!$E:$E,Benchmarks!$A27) + COUNTIF(Servers!$E:$E,Benchmarks!$A27)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>142</v>
+      <c r="E24" t="s">
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>1409</v>
+        <v>1299</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E22) + COUNTIF(Laptops!$H:$H,Benchmarks!$E22) + COUNTIF(Servers!$H:$H,Benchmarks!$E22)</f>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E23) + COUNTIF(Laptops!$H:$H,Benchmarks!$E23) + COUNTIF(Servers!$H:$H,Benchmarks!$E23)</f>
         <v>1</v>
       </c>
     </row>
@@ -4813,20 +4915,20 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A21) + COUNTIF(Laptops!$E:$E,Benchmarks!$A21) + COUNTIF(Servers!$E:$E,Benchmarks!$A21)</f>
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>101</v>
+      <c r="E25" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="F25">
-        <v>1682</v>
+        <v>1409</v>
       </c>
       <c r="G25">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E23) + COUNTIF(Laptops!$H:$H,Benchmarks!$E23) + COUNTIF(Servers!$H:$H,Benchmarks!$E23)</f>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E24) + COUNTIF(Laptops!$H:$H,Benchmarks!$E24) + COUNTIF(Servers!$H:$H,Benchmarks!$E24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4835,15 +4937,15 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A28) + COUNTIF(Laptops!$E:$E,Benchmarks!$A28) + COUNTIF(Servers!$E:$E,Benchmarks!$A28)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="11">
-        <v>2064</v>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26">
+        <v>1682</v>
       </c>
       <c r="G26">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E27) + COUNTIF(Laptops!$H:$H,Benchmarks!$E27) + COUNTIF(Servers!$H:$H,Benchmarks!$E27)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E25) + COUNTIF(Laptops!$H:$H,Benchmarks!$E25) + COUNTIF(Servers!$H:$H,Benchmarks!$E25)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4857,15 +4959,15 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A22) + COUNTIF(Laptops!$E:$E,Benchmarks!$A22) + COUNTIF(Servers!$E:$E,Benchmarks!$A22)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="12">
-        <v>2316</v>
+      <c r="E27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2064</v>
       </c>
       <c r="G27">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E24) + COUNTIF(Laptops!$H:$H,Benchmarks!$E24) + COUNTIF(Servers!$H:$H,Benchmarks!$E24)</f>
-        <v>3</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E26) + COUNTIF(Laptops!$H:$H,Benchmarks!$E26) + COUNTIF(Servers!$H:$H,Benchmarks!$E26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4879,36 +4981,36 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A23) + COUNTIF(Laptops!$E:$E,Benchmarks!$A23) + COUNTIF(Servers!$E:$E,Benchmarks!$A23)</f>
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>162</v>
+      <c r="E28" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F28" s="13">
-        <v>3060</v>
+        <v>2316</v>
       </c>
       <c r="G28">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E25) + COUNTIF(Laptops!$H:$H,Benchmarks!$E25) + COUNTIF(Servers!$H:$H,Benchmarks!$E25)</f>
-        <v>1</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E27) + COUNTIF(Laptops!$H:$H,Benchmarks!$E27) + COUNTIF(Servers!$H:$H,Benchmarks!$E27)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29">
         <v>15130</v>
       </c>
       <c r="C29">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A29) + COUNTIF(Laptops!$E:$E,Benchmarks!$A29) + COUNTIF(Servers!$E:$E,Benchmarks!$A29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29">
-        <v>13733</v>
+        <v>162</v>
+      </c>
+      <c r="F29" s="13">
+        <v>3060</v>
       </c>
       <c r="G29">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E29) + COUNTIF(Laptops!$H:$H,Benchmarks!$E29) + COUNTIF(Servers!$H:$H,Benchmarks!$E29)</f>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E28) + COUNTIF(Laptops!$H:$H,Benchmarks!$E28) + COUNTIF(Servers!$H:$H,Benchmarks!$E28)</f>
         <v>1</v>
       </c>
     </row>
@@ -4917,15 +5019,15 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A30) + COUNTIF(Laptops!$E:$E,Benchmarks!$A30) + COUNTIF(Servers!$E:$E,Benchmarks!$A30)</f>
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>198</v>
+      <c r="E30" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="F30">
-        <v>1031</v>
+        <v>13733</v>
       </c>
       <c r="G30">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E30) + COUNTIF(Laptops!$H:$H,Benchmarks!$E30) + COUNTIF(Servers!$H:$H,Benchmarks!$E30)</f>
-        <v>2</v>
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E29) + COUNTIF(Laptops!$H:$H,Benchmarks!$E29) + COUNTIF(Servers!$H:$H,Benchmarks!$E29)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4933,17 +5035,13 @@
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A31) + COUNTIF(Laptops!$E:$E,Benchmarks!$A31) + COUNTIF(Servers!$E:$E,Benchmarks!$A31)</f>
         <v>0</v>
       </c>
-      <c r="G31">
-        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E31) + COUNTIF(Laptops!$H:$H,Benchmarks!$E31) + COUNTIF(Servers!$H:$H,Benchmarks!$E31)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="E3:G29">
-    <sortCondition ref="F3:F29"/>
+  <sortState ref="E2:G30">
+    <sortCondition ref="F2:F30"/>
   </sortState>
   <conditionalFormatting sqref="B1:B24 B29:B1048576 B27">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4954,8 +5052,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F25 F28:F1048576">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="F32:F1048576 F1">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4967,7 +5065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4980,8 +5078,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="G32:G1048576 G1:G30">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4994,32 +5092,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F26 F28:F1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B25 B29:B1048576 B27">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5031,7 +5105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B27 B29:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5043,6 +5117,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5084,7 +5170,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G32:G1048576 G1:G30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="236">
   <si>
     <t>Usage</t>
   </si>
@@ -252,9 +252,6 @@
     <t>NVIDIA Quadro NVS 450</t>
   </si>
   <si>
-    <t>Martyn Gigg Desktop</t>
-  </si>
-  <si>
     <t>ndw1213</t>
   </si>
   <si>
@@ -378,21 +375,9 @@
     <t>256GB SSD</t>
   </si>
   <si>
-    <t>Sasview builder</t>
-  </si>
-  <si>
-    <t>mantids-imac</t>
-  </si>
-  <si>
-    <t>iMac</t>
-  </si>
-  <si>
     <t>i3-550 @ 3.2GHz (1 core + HT)</t>
   </si>
   <si>
-    <t>1TB 7200rpm IDE</t>
-  </si>
-  <si>
     <t>ATI Radeon HD5670</t>
   </si>
   <si>
@@ -705,9 +690,6 @@
     <t>512GB NVMe</t>
   </si>
   <si>
-    <t>Store decomission</t>
-  </si>
-  <si>
     <t>SL7 Builder</t>
   </si>
   <si>
@@ -717,9 +699,6 @@
     <t>Mac builds</t>
   </si>
   <si>
-    <t>Sam Jones</t>
-  </si>
-  <si>
     <t>ndw1597</t>
   </si>
   <si>
@@ -811,6 +790,30 @@
   </si>
   <si>
     <t>Intel HD Graphics 530</t>
+  </si>
+  <si>
+    <t>Anthony Lim Desktop</t>
+  </si>
+  <si>
+    <t>Martyn Gigg (SX) desktop</t>
+  </si>
+  <si>
+    <t>ndw2185</t>
+  </si>
+  <si>
+    <t>Precision 5820</t>
+  </si>
+  <si>
+    <t>i9-7960X@2.8GHz</t>
+  </si>
+  <si>
+    <t>nVidia RTX4000</t>
+  </si>
+  <si>
+    <t>i9-9900@3.1GHZ</t>
+  </si>
+  <si>
+    <t>Harry Saunders</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,7 +1058,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1098,7 +1101,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1141,7 +1144,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1184,7 +1187,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1227,7 +1230,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1270,7 +1273,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1318,7 +1321,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1366,7 +1369,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1414,7 +1417,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1470,7 +1473,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1518,7 +1521,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1566,7 +1569,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1614,7 +1617,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1662,7 +1665,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1710,7 +1713,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1758,7 +1761,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1806,7 +1809,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1854,7 +1857,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1902,7 +1905,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1950,7 +1953,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1998,7 +2001,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2046,7 +2049,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2060,6 +2063,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9058275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8839200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2377,10 +2476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2529,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2444,10 +2543,10 @@
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -2465,7 +2564,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2478,19 +2577,19 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
@@ -2499,7 +2598,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2512,19 +2611,19 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -2533,7 +2632,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2546,28 +2645,28 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2580,7 +2679,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -2598,10 +2697,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2648,10 +2747,10 @@
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
@@ -2666,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
@@ -2682,16 +2781,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -2700,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -2716,33 +2815,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -2758,25 +2857,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2792,10 +2891,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2804,16 +2903,16 @@
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2826,10 +2925,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2838,16 +2937,16 @@
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2860,10 +2959,10 @@
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2872,16 +2971,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2894,28 +2993,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2928,28 +3027,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2962,28 +3061,28 @@
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -2996,28 +3095,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3030,28 +3129,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3064,28 +3163,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3098,28 +3197,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3132,28 +3231,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3166,28 +3265,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3200,28 +3299,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3233,34 +3332,58 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" t="e">
+        <v>233</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>26030</v>
+      </c>
+      <c r="J27">
+        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>13266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" t="e">
         <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27">
-        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+      <c r="J28">
+        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I28" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I29" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
@@ -3270,7 +3393,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I30" t="e">
-        <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J30" t="e">
@@ -3278,9 +3401,19 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" t="e">
+        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="I1:I35 I37:I1048576">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3292,7 +3425,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3365,7 +3546,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3407,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3438,25 +3619,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3469,28 +3650,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3503,7 +3684,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3537,19 +3718,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -3558,7 +3739,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3571,19 +3752,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -3592,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3605,28 +3786,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3639,25 +3820,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3753,10 +3934,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A14" sqref="A13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3772,7 +3953,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3804,35 +3985,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3843,30 +4024,30 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3877,21 +4058,21 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
@@ -3900,7 +4081,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3911,30 +4092,30 @@
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3945,30 +4126,30 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3979,30 +4160,30 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4013,30 +4194,30 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>85</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4047,30 +4228,30 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4081,24 +4262,24 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -4112,30 +4293,30 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4146,67 +4327,64 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>2877</v>
-      </c>
-      <c r="J13" s="3">
+        <v>10807</v>
+      </c>
+      <c r="J13">
         <f>VLOOKUP(H13,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1070</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4217,55 +4395,31 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>180</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" t="e">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10807</v>
-      </c>
-      <c r="J15">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
         <f>VLOOKUP(H15,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" t="e">
-        <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(E33,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J16" t="e">
@@ -4275,7 +4429,7 @@
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" t="e">
-        <f>VLOOKUP(E34,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
@@ -4293,24 +4447,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" t="e">
-        <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="2" t="s">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4354,7 +4498,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4365,23 +4509,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4400,7 +4544,7 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -4410,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -4422,7 +4566,7 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -4432,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -4466,17 +4610,17 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>2877</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A5) + COUNTIF(Laptops!$E:$E,Benchmarks!$A5) + COUNTIF(Servers!$E:$E,Benchmarks!$A5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4488,7 +4632,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -4498,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -4520,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>324</v>
@@ -4532,7 +4676,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -4542,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -4554,7 +4698,7 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>5397</v>
@@ -4576,7 +4720,7 @@
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>5478</v>
@@ -4620,7 +4764,7 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>6345</v>
@@ -4630,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -4642,7 +4786,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>8014</v>
@@ -4652,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -4664,7 +4808,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4674,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>684</v>
@@ -4686,7 +4830,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4708,7 +4852,7 @@
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>8765</v>
@@ -4718,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4730,7 +4874,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>9045</v>
@@ -4740,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -4762,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F18">
         <v>1031</v>
@@ -4774,7 +4918,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>9447</v>
@@ -4784,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>1070</v>
@@ -4796,7 +4940,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>9995</v>
@@ -4806,19 +4950,19 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <v>1097</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E19) + COUNTIF(Laptops!$H:$H,Benchmarks!$E19) + COUNTIF(Servers!$H:$H,Benchmarks!$E19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>10039</v>
@@ -4828,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F21" s="4">
         <v>1122</v>
@@ -4850,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F22" s="4">
         <v>1215</v>
@@ -4862,7 +5006,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -4884,7 +5028,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -4894,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <v>1299</v>
@@ -4906,7 +5050,7 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B25" s="12">
         <v>16874</v>
@@ -4916,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F25">
         <v>1409</v>
@@ -4928,7 +5072,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -4938,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F26">
         <v>1682</v>
@@ -4950,7 +5094,7 @@
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="13">
         <v>21216</v>
@@ -4960,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F27" s="16">
         <v>2064</v>
@@ -4972,7 +5116,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B28" s="13">
         <v>24596</v>
@@ -4982,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F28" s="13">
         <v>2316</v>
@@ -4994,7 +5138,7 @@
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B29">
         <v>15130</v>
@@ -5004,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F29" s="13">
         <v>3060</v>
@@ -5015,12 +5159,18 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30">
+        <v>26030</v>
+      </c>
       <c r="C30">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A30) + COUNTIF(Laptops!$E:$E,Benchmarks!$A30) + COUNTIF(Servers!$E:$E,Benchmarks!$A30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F30">
         <v>13733</v>
@@ -5031,9 +5181,25 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31">
+        <v>18619</v>
+      </c>
       <c r="C31">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A31) + COUNTIF(Laptops!$E:$E,Benchmarks!$A31) + COUNTIF(Servers!$E:$E,Benchmarks!$A31)</f>
         <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31">
+        <v>13266</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E30) + COUNTIF(Laptops!$H:$H,Benchmarks!$E30) + COUNTIF(Servers!$H:$H,Benchmarks!$E30)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5078,7 +5244,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G1048576 G1:G30">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -5116,7 +5282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B31">
+  <conditionalFormatting sqref="B2:B999">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5128,7 +5294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
+  <conditionalFormatting sqref="F2:F999">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5170,7 +5336,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G32:G1048576 G1:G30</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="228">
   <si>
     <t>Usage</t>
   </si>
@@ -201,30 +201,15 @@
     <t>16GB</t>
   </si>
   <si>
-    <t>ndw1123</t>
-  </si>
-  <si>
-    <t>Optiplex 7010</t>
-  </si>
-  <si>
     <t>1TB</t>
   </si>
   <si>
     <t>Intel HD 4000</t>
   </si>
   <si>
-    <t>Precision T5500</t>
-  </si>
-  <si>
     <t>intel xenon X5570 @2.93GHz (8 core)</t>
   </si>
   <si>
-    <t>24GB</t>
-  </si>
-  <si>
-    <t>1.8TB</t>
-  </si>
-  <si>
     <t>Owen Arnold Laptop</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>ndw903</t>
   </si>
   <si>
-    <t>ndw1210</t>
-  </si>
-  <si>
     <t>256GB SSD + 500GB HDD</t>
   </si>
   <si>
@@ -546,9 +528,6 @@
     <t>256GB NVMe + 1TB 7200rpm IDE</t>
   </si>
   <si>
-    <t>Michael Hart</t>
-  </si>
-  <si>
     <t>ndw1490</t>
   </si>
   <si>
@@ -669,15 +648,9 @@
     <t>ndw1891</t>
   </si>
   <si>
-    <t>ndw1892</t>
-  </si>
-  <si>
     <t>nVidia GTX1080 Ti</t>
   </si>
   <si>
-    <t>SSD + 1TB</t>
-  </si>
-  <si>
     <t>ndw1879</t>
   </si>
   <si>
@@ -720,30 +693,15 @@
     <t>Optiplex 5050</t>
   </si>
   <si>
-    <t>Build Server (jail cell)</t>
-  </si>
-  <si>
     <t>i7-8700@3.2GHZ</t>
   </si>
   <si>
     <t>ndw2045</t>
   </si>
   <si>
-    <t>Spare?</t>
-  </si>
-  <si>
     <t>ndw1452</t>
   </si>
   <si>
-    <t>Imaging PC  Loan - Tino?</t>
-  </si>
-  <si>
-    <t>Owen Arnold Desktop - Gemma's desk</t>
-  </si>
-  <si>
-    <t>ndw846</t>
-  </si>
-  <si>
     <t>Dimitar - Imaging workstation</t>
   </si>
   <si>
@@ -814,13 +772,31 @@
   </si>
   <si>
     <t>Harry Saunders</t>
+  </si>
+  <si>
+    <t>Build Server (cppcheck)</t>
+  </si>
+  <si>
+    <t>Build Server (clang format/cppcheck/flake8))</t>
+  </si>
+  <si>
+    <t>Build Server (docker)</t>
+  </si>
+  <si>
+    <t>New suggested PC spec</t>
+  </si>
+  <si>
+    <t>Optiplex 7070</t>
+  </si>
+  <si>
+    <t>Imaging PC  Loan - from Tino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -884,8 +860,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +889,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -933,10 +921,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -980,13 +969,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2183,6 +2175,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="8839200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2476,10 +2516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K11" sqref="A11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2529,7 +2569,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2541,182 +2581,156 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>210</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5679</v>
+        <v>9419</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(H3,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>204</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5478</v>
+        <v>9419</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(H4,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5">
-        <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>5478</v>
-      </c>
-      <c r="J5">
-        <f>VLOOKUP(H5,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>8014</v>
+        <v>9995</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(H6,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
+      <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>157</v>
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
+        <v>9995</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(H7,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>3060</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="A8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2724,331 +2738,357 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
+      <c r="E8" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
+      <c r="G8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
+        <v>9995</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(H8,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="5">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
-      </c>
-      <c r="J9" s="5">
+        <v>9995</v>
+      </c>
+      <c r="J9">
         <f>VLOOKUP(H9,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9419</v>
+        <v>9995</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>208</v>
+      <c r="A11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>10039</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
+        <v>139</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>10808</v>
       </c>
       <c r="J12">
         <f>VLOOKUP(H12,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
+        <v>175</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
+        <v>177</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>18083</v>
       </c>
       <c r="J13">
         <f>VLOOKUP(H13,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>987</v>
+        <v>13733</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>167</v>
+      <c r="A14" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
+      <c r="D14" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>137</v>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" t="s">
+        <v>183</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>10808</v>
       </c>
       <c r="J14">
         <f>VLOOKUP(H14,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1409</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>217</v>
+      <c r="A15" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
+      <c r="D15" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>137</v>
+      <c r="G15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" t="s">
+        <v>183</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>10808</v>
       </c>
       <c r="J15">
         <f>VLOOKUP(H15,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>138</v>
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
+      <c r="D16" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>9995</v>
+        <v>10808</v>
       </c>
       <c r="J16">
         <f>VLOOKUP(H16,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1409</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>220</v>
+      <c r="A17" t="s">
+        <v>192</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>141</v>
+      <c r="D17" t="s">
+        <v>194</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10039</v>
+        <v>10808</v>
       </c>
       <c r="J17">
         <f>VLOOKUP(H17,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1007</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>181</v>
+      <c r="D18" t="s">
+        <v>194</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3059,360 +3099,146 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
+        <v>211</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
+        <v>15130</v>
       </c>
       <c r="J19">
         <f>VLOOKUP(H19,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1122</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>217</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>18083</v>
+        <v>26030</v>
       </c>
       <c r="J20">
         <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>13733</v>
+        <v>13266</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" t="e">
         <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
+        <v>#N/A</v>
       </c>
       <c r="J21">
         <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1031</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" t="s">
-        <v>192</v>
+        <v>210</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
+        <v>18619</v>
       </c>
       <c r="J22">
         <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1031</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23">
+      <c r="I23" t="e">
         <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
-      </c>
-      <c r="J23">
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="e">
         <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1122</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24">
+      <c r="I24" t="e">
         <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
-      </c>
-      <c r="J24">
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
         <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25">
-        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>10808</v>
-      </c>
-      <c r="J25">
-        <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I26">
-        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>15130</v>
-      </c>
-      <c r="J26">
-        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I27">
-        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>26030</v>
-      </c>
-      <c r="J27">
-        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>13266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" t="e">
-        <f>VLOOKUP(Laptops!E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28">
-        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I29" t="e">
-        <f>VLOOKUP(Laptops!E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I30" t="e">
-        <f>VLOOKUP(Laptops!E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I31" t="e">
-        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
-        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I35 I37:I1048576">
+  <conditionalFormatting sqref="I30:I1048576 I1:I28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3436,7 +3262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3448,7 +3274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3460,7 +3286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3472,7 +3298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3546,33 +3372,33 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3588,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3619,25 +3445,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3650,28 +3476,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3684,7 +3510,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3718,19 +3544,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -3739,7 +3565,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3752,19 +3578,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -3773,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3786,28 +3612,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3820,25 +3646,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3937,7 +3763,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A13:J14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3987,33 +3813,33 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(E3,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4026,28 +3852,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(E4,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4060,28 +3886,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(E5,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4094,28 +3920,28 @@
     </row>
     <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(E6,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4128,28 +3954,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(E7,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4162,28 +3988,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(E8,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4196,28 +4022,28 @@
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(E9,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4230,28 +4056,28 @@
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(E10,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4264,25 +4090,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4295,28 +4121,28 @@
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4329,28 +4155,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4363,28 +4189,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4397,16 +4223,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I15" t="e">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -4417,42 +4243,114 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" t="e">
-        <f>VLOOKUP(E33,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" t="e">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>5478</v>
+      </c>
+      <c r="J16">
         <f>VLOOKUP(H16,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" t="e">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
         <f>VLOOKUP(E17,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" t="e">
+        <v>5478</v>
+      </c>
+      <c r="J17">
         <f>VLOOKUP(H17,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" t="e">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18">
         <f>VLOOKUP(E18,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" t="e">
+        <v>8014</v>
+      </c>
+      <c r="J18">
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
@@ -4462,7 +4360,31 @@
   <sortState ref="A3:K13">
     <sortCondition ref="B3:B13"/>
   </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I1:I15 I19:I1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J15 J19:J1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4474,7 +4396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J16:J18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4498,7 +4420,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4509,23 +4431,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4544,7 +4466,7 @@
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>405</v>
@@ -4554,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -4566,7 +4488,7 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1755</v>
@@ -4576,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -4598,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -4610,7 +4532,7 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>2877</v>
@@ -4620,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4632,7 +4554,7 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>3062</v>
@@ -4642,14 +4564,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>102</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E6) + COUNTIF(Laptops!$H:$H,Benchmarks!$E6) + COUNTIF(Servers!$H:$H,Benchmarks!$E6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4664,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>324</v>
@@ -4676,7 +4598,7 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>4736</v>
@@ -4686,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>427</v>
@@ -4698,17 +4620,17 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B9">
         <v>5397</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A24) + COUNTIF(Laptops!$E:$E,Benchmarks!$A24) + COUNTIF(Servers!$E:$E,Benchmarks!$A24)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>457</v>
@@ -4720,7 +4642,7 @@
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>5478</v>
@@ -4742,7 +4664,7 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>5679</v>
@@ -4764,17 +4686,17 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <v>6345</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A11) + COUNTIF(Laptops!$E:$E,Benchmarks!$A11) + COUNTIF(Servers!$E:$E,Benchmarks!$A11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F12">
         <v>576</v>
@@ -4786,7 +4708,7 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>8014</v>
@@ -4796,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>658</v>
@@ -4808,7 +4730,7 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B14" s="11">
         <v>8141</v>
@@ -4818,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>684</v>
@@ -4830,7 +4752,7 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B15">
         <v>8657</v>
@@ -4847,12 +4769,12 @@
       </c>
       <c r="G15">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E15) + COUNTIF(Laptops!$H:$H,Benchmarks!$E15) + COUNTIF(Servers!$H:$H,Benchmarks!$E15)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>8765</v>
@@ -4862,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <v>991</v>
@@ -4874,7 +4796,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>9045</v>
@@ -4884,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -4906,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F18">
         <v>1031</v>
@@ -4918,7 +4840,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>9447</v>
@@ -4928,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>1070</v>
@@ -4940,17 +4862,17 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>9995</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A18) + COUNTIF(Laptops!$E:$E,Benchmarks!$A18) + COUNTIF(Servers!$E:$E,Benchmarks!$A18)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>1097</v>
@@ -4962,7 +4884,7 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>10039</v>
@@ -4972,19 +4894,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F21" s="4">
         <v>1122</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E21) + COUNTIF(Laptops!$H:$H,Benchmarks!$E21) + COUNTIF(Servers!$H:$H,Benchmarks!$E21)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>10270</v>
@@ -4994,7 +4916,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F22" s="4">
         <v>1215</v>
@@ -5006,7 +4928,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B23" s="11">
         <v>10807</v>
@@ -5016,19 +4938,19 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>1298</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E22) + COUNTIF(Laptops!$H:$H,Benchmarks!$E22) + COUNTIF(Servers!$H:$H,Benchmarks!$E22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B24">
         <v>10808</v>
@@ -5038,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>1299</v>
@@ -5050,7 +4972,7 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B25" s="12">
         <v>16874</v>
@@ -5060,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F25">
         <v>1409</v>
@@ -5072,7 +4994,7 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B26" s="14">
         <v>18083</v>
@@ -5082,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <v>1682</v>
@@ -5094,7 +5016,7 @@
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B27" s="13">
         <v>21216</v>
@@ -5104,9 +5026,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="16">
+        <v>164</v>
+      </c>
+      <c r="F27" s="15">
         <v>2064</v>
       </c>
       <c r="G27">
@@ -5116,7 +5038,7 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B28" s="13">
         <v>24596</v>
@@ -5126,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F28" s="13">
         <v>2316</v>
@@ -5138,7 +5060,7 @@
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B29">
         <v>15130</v>
@@ -5148,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F29" s="13">
         <v>3060</v>
@@ -5160,7 +5082,7 @@
     </row>
     <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B30">
         <v>26030</v>
@@ -5170,29 +5092,29 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F30">
         <v>13733</v>
       </c>
       <c r="G30">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E29) + COUNTIF(Laptops!$H:$H,Benchmarks!$E29) + COUNTIF(Servers!$H:$H,Benchmarks!$E29)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B31">
         <v>18619</v>
       </c>
       <c r="C31">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A31) + COUNTIF(Laptops!$E:$E,Benchmarks!$A31) + COUNTIF(Servers!$E:$E,Benchmarks!$A31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F31">
         <v>13266</v>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="525" yWindow="555" windowWidth="21495" windowHeight="13725"/>
+    <workbookView xWindow="525" yWindow="555" windowWidth="14805" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
   <si>
     <t>Usage</t>
   </si>
@@ -786,17 +786,41 @@
     <t>New suggested PC spec</t>
   </si>
   <si>
-    <t>Optiplex 7070</t>
-  </si>
-  <si>
     <t>Imaging PC  Loan - from Tino</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Mac 1</t>
+  </si>
+  <si>
+    <t>Mac 2</t>
+  </si>
+  <si>
+    <t>old mac to Build server</t>
+  </si>
+  <si>
+    <t>Build server</t>
+  </si>
+  <si>
+    <t>New Pc</t>
+  </si>
+  <si>
+    <t>Old PC</t>
+  </si>
+  <si>
+    <t>Small form factor Precision</t>
+  </si>
+  <si>
+    <t>? Placement or harrys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -867,8 +891,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,8 +928,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -920,14 +957,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -975,9 +1028,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2223,6 +2280,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9115425"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2516,10 +2621,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="A11:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2535,7 +2640,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2566,8 +2671,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -2581,7 +2692,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2614,8 +2725,14 @@
         <f>VLOOKUP(H3,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>987</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -2648,16 +2765,22 @@
         <f>VLOOKUP(H4,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>987</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>204</v>
       </c>
@@ -2691,8 +2814,8 @@
         <v>987</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2724,8 +2847,11 @@
         <f>VLOOKUP(H7,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>987</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>160</v>
       </c>
@@ -2758,8 +2884,14 @@
         <f>VLOOKUP(H8,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1409</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>203</v>
       </c>
@@ -2792,8 +2924,14 @@
         <f>VLOOKUP(H9,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1409</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -2826,8 +2964,14 @@
         <f>VLOOKUP(H10,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1409</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>206</v>
       </c>
@@ -2860,8 +3004,14 @@
         <f>VLOOKUP(H11,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1007</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>199</v>
       </c>
@@ -2895,7 +3045,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>198</v>
       </c>
@@ -2929,7 +3079,7 @@
         <v>13733</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>202</v>
       </c>
@@ -2963,8 +3113,8 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2997,7 +3147,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>201</v>
       </c>
@@ -3031,7 +3181,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3065,7 +3215,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>205</v>
       </c>
@@ -3098,8 +3248,14 @@
         <f>VLOOKUP(H18,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1122</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>207</v>
       </c>
@@ -3133,7 +3289,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>215</v>
       </c>
@@ -3166,79 +3322,134 @@
         <f>VLOOKUP(H20,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>13266</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G21" s="2" t="s">
+      <c r="K20" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26">
+        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18619</v>
+      </c>
+      <c r="J26">
+        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" t="e">
+        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I28" t="e">
+        <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <f>VLOOKUP(H28,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I21" t="e">
-        <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+      <c r="I30" t="e">
+        <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21">
-        <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+      <c r="J30">
+        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22">
-        <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>18619</v>
-      </c>
-      <c r="J22">
-        <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I23" t="e">
-        <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="e">
+        <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" t="e">
-        <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I24" t="e">
-        <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" t="e">
-        <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="J31">
+        <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>3060</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I30:I1048576 I1:I28">
+  <conditionalFormatting sqref="I34:I1048576 I1:I24 I26:I32">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3250,7 +3461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J24 J26:J1048576">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3262,7 +3473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3274,7 +3485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3286,7 +3497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3298,7 +3509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3763,7 +3974,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5099,7 +5310,7 @@
       </c>
       <c r="G30">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E29) + COUNTIF(Laptops!$H:$H,Benchmarks!$E29) + COUNTIF(Servers!$H:$H,Benchmarks!$E29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mantid\Documents\Project-Management\Hardware\RAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mantid1\documents\Project-Management\Hardware\RAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="525" yWindow="555" windowWidth="14805" windowHeight="1800"/>
+    <workbookView xWindow="528" yWindow="552" windowWidth="14808" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="Desktops" sheetId="4" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="243">
   <si>
     <t>Usage</t>
   </si>
@@ -708,9 +708,6 @@
     <t>Phillip Colebrooke</t>
   </si>
   <si>
-    <t>Ciara Nightingale</t>
-  </si>
-  <si>
     <t>Connor Finn</t>
   </si>
   <si>
@@ -771,9 +768,6 @@
     <t>i9-9900@3.1GHZ</t>
   </si>
   <si>
-    <t>Harry Saunders</t>
-  </si>
-  <si>
     <t>Build Server (cppcheck)</t>
   </si>
   <si>
@@ -810,10 +804,37 @@
     <t>Old PC</t>
   </si>
   <si>
-    <t>Small form factor Precision</t>
-  </si>
-  <si>
     <t>? Placement or harrys</t>
+  </si>
+  <si>
+    <t>Precision 3431</t>
+  </si>
+  <si>
+    <t>ndw2292</t>
+  </si>
+  <si>
+    <t>Danny Hindson Laptop</t>
+  </si>
+  <si>
+    <t>ndlt1263</t>
+  </si>
+  <si>
+    <t>Precision 5540</t>
+  </si>
+  <si>
+    <t>i9-9880H@2.3GHz</t>
+  </si>
+  <si>
+    <t>2TB NVMe</t>
+  </si>
+  <si>
+    <t>NVIDIA Quadro T2000</t>
+  </si>
+  <si>
+    <t>Ex Ciara Nightingale</t>
+  </si>
+  <si>
+    <t>Ex Harry Saunders</t>
   </si>
 </sst>
 </file>
@@ -2328,6 +2349,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9113520"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2621,26 +2690,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,13 +2741,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -2692,7 +2761,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2729,12 +2798,12 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -2769,20 +2838,20 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>137</v>
@@ -2814,9 +2883,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>126</v>
@@ -2848,10 +2917,10 @@
         <v>987</v>
       </c>
       <c r="L7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>160</v>
       </c>
@@ -2888,12 +2957,12 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>188</v>
@@ -2928,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -2968,12 +3037,12 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>134</v>
@@ -2994,7 +3063,7 @@
         <v>138</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(E11,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3005,13 +3074,13 @@
         <v>1007</v>
       </c>
       <c r="K11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>199</v>
       </c>
@@ -3045,7 +3114,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>198</v>
       </c>
@@ -3079,9 +3148,9 @@
         <v>13733</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>181</v>
@@ -3113,9 +3182,9 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>182</v>
@@ -3147,9 +3216,9 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>189</v>
@@ -3181,7 +3250,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3215,9 +3284,9 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>196</v>
@@ -3249,36 +3318,36 @@
         <v>1122</v>
       </c>
       <c r="K18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>190</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(E19,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3289,21 +3358,21 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>77</v>
@@ -3312,7 +3381,7 @@
         <v>190</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(E20,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3323,93 +3392,211 @@
         <v>13266</v>
       </c>
       <c r="K20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21">
+        <f>VLOOKUP(E21,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18619</v>
+      </c>
+      <c r="J21">
+        <f>VLOOKUP(H21,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22">
+        <f>VLOOKUP(E22,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18619</v>
+      </c>
+      <c r="J22">
+        <f>VLOOKUP(H22,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23">
+        <f>VLOOKUP(E23,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18619</v>
+      </c>
+      <c r="J23">
+        <f>VLOOKUP(H23,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I24">
+        <f>VLOOKUP(E24,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18619</v>
+      </c>
+      <c r="J24">
+        <f>VLOOKUP(H24,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25">
+        <f>VLOOKUP(E25,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>18619</v>
+      </c>
+      <c r="J25">
+        <f>VLOOKUP(H25,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I26">
-        <f>VLOOKUP(E26,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+      <c r="H27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>18619</v>
       </c>
-      <c r="J26">
-        <f>VLOOKUP(H26,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+      <c r="J27">
+        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>1215</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I27" t="e">
-        <f>VLOOKUP(E27,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" t="e">
-        <f>VLOOKUP(H27,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I28" t="e">
         <f>VLOOKUP(E28,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3419,25 +3606,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I30" t="e">
+    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I29" t="e">
         <f>VLOOKUP(E29,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30">
-        <f>VLOOKUP(H30,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H31" t="s">
-        <v>150</v>
+      <c r="J29" t="e">
+        <f>VLOOKUP(H29,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I31" t="e">
         <f>VLOOKUP(E30,Benchmarks!$A$2:$B$942,2,FALSE)</f>
@@ -3445,11 +3629,48 @@
       </c>
       <c r="J31">
         <f>VLOOKUP(H31,Benchmarks!$E$2:$F$947,2,FALSE)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" t="e">
+        <f>VLOOKUP(E31,Benchmarks!$A$2:$B$942,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32">
+        <f>VLOOKUP(H32,Benchmarks!$E$2:$F$947,2,FALSE)</f>
         <v>3060</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I34:I1048576 I1:I24 I26:I32">
+  <conditionalFormatting sqref="I35:I1048576 I1:I20 I27:I33">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J1048576 J1:J20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3461,7 +3682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J24 J26:J1048576">
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3473,7 +3694,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J25">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3485,19 +3826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3509,7 +3838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3534,22 +3863,22 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3581,12 +3910,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3620,7 +3949,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3983,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>158</v>
       </c>
@@ -3685,7 +4014,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -3719,7 +4048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -3753,7 +4082,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -3787,7 +4116,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>119</v>
       </c>
@@ -3821,7 +4150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -3855,7 +4184,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -3886,17 +4215,41 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" t="e">
+    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12">
         <f>VLOOKUP(E12,Benchmarks!$A$2:$B$942,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" t="e">
+        <v>16263</v>
+      </c>
+      <c r="J12">
         <f>VLOOKUP(H12,Benchmarks!$E$2:$F$947,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I13" t="e">
         <f>VLOOKUP(E13,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3906,7 +4259,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I14" t="e">
         <f>VLOOKUP(E14,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3916,7 +4269,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I15" t="e">
         <f>VLOOKUP(E15,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3926,7 +4279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I16" t="e">
         <f>VLOOKUP(E16,Benchmarks!$A$2:$B$942,2,FALSE)</f>
         <v>#N/A</v>
@@ -3977,20 +4330,20 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,12 +4375,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4061,7 +4414,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -4095,7 +4448,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>153</v>
       </c>
@@ -4129,7 +4482,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -4163,7 +4516,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>145</v>
       </c>
@@ -4197,7 +4550,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>145</v>
       </c>
@@ -4231,7 +4584,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>141</v>
       </c>
@@ -4265,7 +4618,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>141</v>
       </c>
@@ -4299,7 +4652,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
@@ -4330,7 +4683,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -4364,7 +4717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
@@ -4398,7 +4751,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>185</v>
       </c>
@@ -4432,7 +4785,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -4454,9 +4807,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -4488,9 +4841,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -4522,9 +4875,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -4556,7 +4909,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
@@ -4628,19 +4981,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4675,7 +5028,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4697,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -4719,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4741,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -4763,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4785,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4807,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4829,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -4851,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4873,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4895,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -4917,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -4939,7 +5292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>172</v>
       </c>
@@ -4961,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>154</v>
       </c>
@@ -4983,7 +5336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -5005,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -5017,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17">
         <v>1007</v>
@@ -5027,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5049,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>108</v>
       </c>
@@ -5071,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>129</v>
       </c>
@@ -5093,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>136</v>
       </c>
@@ -5115,7 +5468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -5127,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" s="4">
         <v>1215</v>
@@ -5137,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>170</v>
       </c>
@@ -5156,10 +5509,10 @@
       </c>
       <c r="G23">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E22) + COUNTIF(Laptops!$H:$H,Benchmarks!$E22) + COUNTIF(Servers!$H:$H,Benchmarks!$E22)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>173</v>
       </c>
@@ -5181,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -5203,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>176</v>
       </c>
@@ -5225,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -5247,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5269,7 +5622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>195</v>
       </c>
@@ -5291,9 +5644,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30">
         <v>26030</v>
@@ -5313,25 +5666,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31">
         <v>18619</v>
       </c>
       <c r="C31">
         <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A31) + COUNTIF(Laptops!$E:$E,Benchmarks!$A31) + COUNTIF(Servers!$E:$E,Benchmarks!$A31)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F31">
         <v>13266</v>
       </c>
       <c r="G31">
         <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E30) + COUNTIF(Laptops!$H:$H,Benchmarks!$E30) + COUNTIF(Servers!$H:$H,Benchmarks!$E30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32">
+        <v>16263</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(Desktops!$E:$E,Benchmarks!$A32) + COUNTIF(Laptops!$E:$E,Benchmarks!$A32) + COUNTIF(Servers!$E:$E,Benchmarks!$A32)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32">
+        <v>7395</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(Desktops!$H:$H,Benchmarks!$E31) + COUNTIF(Laptops!$H:$H,Benchmarks!$E31) + COUNTIF(Servers!$H:$H,Benchmarks!$E31)</f>
         <v>1</v>
       </c>
     </row>
@@ -5339,7 +5714,7 @@
   <sortState ref="E2:G30">
     <sortCondition ref="F2:F30"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B24 B29:B1048576 B27">
+  <conditionalFormatting sqref="B1:B24 B27 B29:B1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5351,7 +5726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F1048576 F1">
+  <conditionalFormatting sqref="F33:F1048576 F1">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5391,7 +5766,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B25 B29:B1048576 B27">
+  <conditionalFormatting sqref="B1:B25 B27 B29:B1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>

--- a/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
+++ b/Project-Management/Hardware/RAL/Mantid Hardware.xlsx
@@ -27,6 +27,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Draper, Nick (Tessella,RAL,ISIS)</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Draper, Nick (Tessella,RAL,ISIS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No ndw number as built linux natively</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -47,7 +81,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nicholas Draper</author>
@@ -106,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="244">
   <si>
     <t>Usage</t>
   </si>
@@ -835,13 +869,16 @@
   </si>
   <si>
     <t>Ex Harry Saunders</t>
+  </si>
+  <si>
+    <t>ICD 000307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -919,6 +956,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1001,7 +1044,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1050,6 +1093,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2397,6 +2443,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9113520"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2686,14 +2780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3531,6 +3625,9 @@
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>132</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3852,6 +3949,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
